--- a/Data and Software/Overview_FullData_For_4_Academic_Years - 31 January 2024 - 2021.xlsx
+++ b/Data and Software/Overview_FullData_For_4_Academic_Years - 31 January 2024 - 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keneo\Downloads\Data and Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA4EFA4-3544-470D-94B1-E82622C0F50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB790D39-356F-4DF8-9662-0086033CC0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="906" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="56">
   <si>
     <t>Overview</t>
   </si>
@@ -346,7 +346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -516,11 +516,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -660,6 +697,36 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -671,24 +738,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -714,7 +763,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -735,32 +784,29 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1179,18 +1225,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="A1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="65" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="53"/>
@@ -1207,8 +1253,8 @@
       <c r="R1" s="53"/>
       <c r="S1" s="53"/>
       <c r="T1" s="53"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="61" t="s">
+      <c r="U1" s="54"/>
+      <c r="V1" s="65" t="s">
         <v>4</v>
       </c>
       <c r="W1" s="53"/>
@@ -1220,8 +1266,8 @@
       <c r="AC1" s="53"/>
       <c r="AD1" s="53"/>
       <c r="AE1" s="53"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="54" t="s">
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="52" t="s">
         <v>5</v>
       </c>
       <c r="AH1" s="53"/>
@@ -1239,94 +1285,94 @@
       <c r="AT1" s="53"/>
       <c r="AU1" s="53"/>
       <c r="AV1" s="53"/>
-      <c r="AW1" s="51"/>
+      <c r="AW1" s="54"/>
       <c r="AX1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:50" ht="16" x14ac:dyDescent="0.35">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="65" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="53"/>
       <c r="H2" s="53"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="61" t="s">
+      <c r="I2" s="54"/>
+      <c r="J2" s="65" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="53"/>
       <c r="L2" s="53"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="61" t="s">
+      <c r="M2" s="54"/>
+      <c r="N2" s="65" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="53"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="61" t="s">
+      <c r="P2" s="54"/>
+      <c r="Q2" s="65" t="s">
         <v>11</v>
       </c>
       <c r="R2" s="53"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="62" t="s">
+      <c r="S2" s="54"/>
+      <c r="T2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="63" t="s">
+      <c r="U2" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="61" t="s">
+      <c r="V2" s="65" t="s">
         <v>8</v>
       </c>
       <c r="W2" s="53"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="61" t="s">
+      <c r="X2" s="54"/>
+      <c r="Y2" s="65" t="s">
         <v>9</v>
       </c>
       <c r="Z2" s="53"/>
       <c r="AA2" s="53"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="61" t="s">
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="62" t="s">
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="AF2" s="63" t="s">
+      <c r="AF2" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="AG2" s="54" t="s">
+      <c r="AG2" s="52" t="s">
         <v>8</v>
       </c>
       <c r="AH2" s="53"/>
       <c r="AI2" s="53"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="54" t="s">
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="52" t="s">
         <v>9</v>
       </c>
       <c r="AL2" s="53"/>
       <c r="AM2" s="53"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="54" t="s">
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="52" t="s">
         <v>10</v>
       </c>
       <c r="AP2" s="53"/>
       <c r="AQ2" s="53"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="54" t="s">
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="52" t="s">
         <v>11</v>
       </c>
       <c r="AT2" s="53"/>
       <c r="AU2" s="53"/>
-      <c r="AV2" s="51"/>
+      <c r="AV2" s="54"/>
       <c r="AW2" s="55" t="s">
         <v>14</v>
       </c>
@@ -1393,7 +1439,7 @@
         <v>21</v>
       </c>
       <c r="T3" s="56"/>
-      <c r="U3" s="64"/>
+      <c r="U3" s="68"/>
       <c r="V3" s="12" t="s">
         <v>18</v>
       </c>
@@ -1422,7 +1468,7 @@
         <v>21</v>
       </c>
       <c r="AE3" s="56"/>
-      <c r="AF3" s="64"/>
+      <c r="AF3" s="68"/>
       <c r="AG3" s="12" t="s">
         <v>18</v>
       </c>
@@ -1477,7 +1523,7 @@
       </c>
     </row>
     <row r="4" spans="1:50" ht="16" x14ac:dyDescent="0.35">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -1629,7 +1675,7 @@
       </c>
     </row>
     <row r="5" spans="1:50" ht="16" x14ac:dyDescent="0.35">
-      <c r="A5" s="48"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
@@ -1779,7 +1825,7 @@
       </c>
     </row>
     <row r="6" spans="1:50" ht="32" x14ac:dyDescent="0.35">
-      <c r="A6" s="48"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="15" t="s">
         <v>26</v>
       </c>
@@ -1929,7 +1975,7 @@
       </c>
     </row>
     <row r="7" spans="1:50" ht="16" x14ac:dyDescent="0.35">
-      <c r="A7" s="48"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="15" t="s">
         <v>27</v>
       </c>
@@ -2079,7 +2125,7 @@
       </c>
     </row>
     <row r="8" spans="1:50" ht="16" x14ac:dyDescent="0.35">
-      <c r="A8" s="48"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="15" t="s">
         <v>28</v>
       </c>
@@ -2229,7 +2275,7 @@
       </c>
     </row>
     <row r="9" spans="1:50" ht="16" x14ac:dyDescent="0.35">
-      <c r="A9" s="48"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="15" t="s">
         <v>29</v>
       </c>
@@ -2379,7 +2425,7 @@
       </c>
     </row>
     <row r="10" spans="1:50" ht="16" x14ac:dyDescent="0.35">
-      <c r="A10" s="48"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="15" t="s">
         <v>30</v>
       </c>
@@ -2529,7 +2575,7 @@
       </c>
     </row>
     <row r="11" spans="1:50" ht="32" x14ac:dyDescent="0.35">
-      <c r="A11" s="48"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="15" t="s">
         <v>31</v>
       </c>
@@ -2679,11 +2725,11 @@
       </c>
     </row>
     <row r="12" spans="1:50" ht="16" x14ac:dyDescent="0.35">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50" t="s">
+      <c r="A12" s="59"/>
+      <c r="B12" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="51"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="21">
         <v>430</v>
       </c>
@@ -2827,7 +2873,7 @@
       </c>
     </row>
     <row r="13" spans="1:50" ht="16" x14ac:dyDescent="0.35">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="57" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -2979,7 +3025,7 @@
       </c>
     </row>
     <row r="14" spans="1:50" ht="32" x14ac:dyDescent="0.35">
-      <c r="A14" s="48"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="15" t="s">
         <v>26</v>
       </c>
@@ -3129,7 +3175,7 @@
       </c>
     </row>
     <row r="15" spans="1:50" ht="16" x14ac:dyDescent="0.35">
-      <c r="A15" s="48"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="15" t="s">
         <v>30</v>
       </c>
@@ -3279,11 +3325,11 @@
       </c>
     </row>
     <row r="16" spans="1:50" ht="16" x14ac:dyDescent="0.35">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50" t="s">
+      <c r="A16" s="59"/>
+      <c r="B16" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="21">
         <v>26</v>
       </c>
@@ -3427,11 +3473,11 @@
       </c>
     </row>
     <row r="17" spans="1:50" ht="16" x14ac:dyDescent="0.35">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="69" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="53"/>
-      <c r="C17" s="51"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="24">
         <v>456</v>
       </c>
@@ -3577,6 +3623,15 @@
     <row r="18" spans="1:50" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="AO2:AR2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AJ2"/>
     <mergeCell ref="AS2:AV2"/>
     <mergeCell ref="AW2:AW3"/>
     <mergeCell ref="A4:A12"/>
@@ -3593,15 +3648,6 @@
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="AK2:AN2"/>
-    <mergeCell ref="AO2:AR2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AJ2"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="1.2374015748031499" header="0.78740157480314998" footer="0.78740157480314998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3662,19 +3708,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="32" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="A1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
       <c r="E1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="73" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="53"/>
@@ -3691,8 +3737,8 @@
       <c r="S1" s="53"/>
       <c r="T1" s="53"/>
       <c r="U1" s="53"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="70" t="s">
+      <c r="V1" s="54"/>
+      <c r="W1" s="74" t="s">
         <v>4</v>
       </c>
       <c r="X1" s="53"/>
@@ -3704,8 +3750,8 @@
       <c r="AD1" s="53"/>
       <c r="AE1" s="53"/>
       <c r="AF1" s="53"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="54" t="s">
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="52" t="s">
         <v>5</v>
       </c>
       <c r="AI1" s="53"/>
@@ -3724,96 +3770,96 @@
       <c r="AV1" s="53"/>
       <c r="AW1" s="53"/>
       <c r="AX1" s="53"/>
-      <c r="AY1" s="51"/>
+      <c r="AY1" s="54"/>
     </row>
     <row r="2" spans="1:51" ht="16" x14ac:dyDescent="0.35">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="31" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="65" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="61" t="s">
+      <c r="J2" s="54"/>
+      <c r="K2" s="65" t="s">
         <v>9</v>
       </c>
       <c r="L2" s="53"/>
       <c r="M2" s="53"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="61" t="s">
+      <c r="N2" s="54"/>
+      <c r="O2" s="65" t="s">
         <v>10</v>
       </c>
       <c r="P2" s="53"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="61" t="s">
+      <c r="Q2" s="54"/>
+      <c r="R2" s="65" t="s">
         <v>11</v>
       </c>
       <c r="S2" s="53"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="71" t="s">
+      <c r="T2" s="54"/>
+      <c r="U2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="63" t="s">
+      <c r="V2" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="61" t="s">
+      <c r="W2" s="65" t="s">
         <v>8</v>
       </c>
       <c r="X2" s="53"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="61" t="s">
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="65" t="s">
         <v>9</v>
       </c>
       <c r="AA2" s="53"/>
       <c r="AB2" s="53"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="61" t="s">
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="71" t="s">
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="63" t="s">
+      <c r="AG2" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="54" t="s">
+      <c r="AH2" s="52" t="s">
         <v>8</v>
       </c>
       <c r="AI2" s="53"/>
       <c r="AJ2" s="53"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="54" t="s">
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="52" t="s">
         <v>9</v>
       </c>
       <c r="AM2" s="53"/>
       <c r="AN2" s="53"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="54" t="s">
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="52" t="s">
         <v>10</v>
       </c>
       <c r="AQ2" s="53"/>
       <c r="AR2" s="53"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="54" t="s">
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="52" t="s">
         <v>11</v>
       </c>
       <c r="AU2" s="53"/>
       <c r="AV2" s="53"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="66" t="s">
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AY2" s="68" t="s">
+      <c r="AY2" s="72" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3878,8 +3924,8 @@
       <c r="T3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="67"/>
-      <c r="V3" s="64"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="68"/>
       <c r="W3" s="12" t="s">
         <v>18</v>
       </c>
@@ -3907,8 +3953,8 @@
       <c r="AE3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="64"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="68"/>
       <c r="AH3" s="12" t="s">
         <v>18</v>
       </c>
@@ -3957,17 +4003,17 @@
       <c r="AW3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="64"/>
+      <c r="AX3" s="71"/>
+      <c r="AY3" s="68"/>
     </row>
     <row r="4" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="57" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -4116,9 +4162,9 @@
       </c>
     </row>
     <row r="5" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="14" t="s">
         <v>30</v>
       </c>
@@ -4265,9 +4311,9 @@
       </c>
     </row>
     <row r="6" spans="1:51" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="14" t="s">
         <v>21</v>
       </c>
@@ -4414,9 +4460,9 @@
       </c>
     </row>
     <row r="7" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="47" t="s">
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="57" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -4565,9 +4611,9 @@
       </c>
     </row>
     <row r="8" spans="1:51" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="14" t="s">
         <v>21</v>
       </c>
@@ -4714,9 +4760,9 @@
       </c>
     </row>
     <row r="9" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="47" t="s">
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="57" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -4865,9 +4911,9 @@
       </c>
     </row>
     <row r="10" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="14" t="s">
         <v>28</v>
       </c>
@@ -5014,9 +5060,9 @@
       </c>
     </row>
     <row r="11" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="14" t="s">
         <v>29</v>
       </c>
@@ -5163,9 +5209,9 @@
       </c>
     </row>
     <row r="12" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="14" t="s">
         <v>30</v>
       </c>
@@ -5312,9 +5358,9 @@
       </c>
     </row>
     <row r="13" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="14" t="s">
         <v>31</v>
       </c>
@@ -5461,9 +5507,9 @@
       </c>
     </row>
     <row r="14" spans="1:51" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="14" t="s">
         <v>21</v>
       </c>
@@ -5610,9 +5656,9 @@
       </c>
     </row>
     <row r="15" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="47" t="s">
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="57" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -5761,9 +5807,9 @@
       </c>
     </row>
     <row r="16" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="14" t="s">
         <v>28</v>
       </c>
@@ -5910,9 +5956,9 @@
       </c>
     </row>
     <row r="17" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="14" t="s">
         <v>30</v>
       </c>
@@ -6059,9 +6105,9 @@
       </c>
     </row>
     <row r="18" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="14" t="s">
         <v>31</v>
       </c>
@@ -6208,9 +6254,9 @@
       </c>
     </row>
     <row r="19" spans="1:51" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="14" t="s">
         <v>21</v>
       </c>
@@ -6357,9 +6403,9 @@
       </c>
     </row>
     <row r="20" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="47" t="s">
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="57" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="14" t="s">
@@ -6508,9 +6554,9 @@
       </c>
     </row>
     <row r="21" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="14" t="s">
         <v>30</v>
       </c>
@@ -6657,9 +6703,9 @@
       </c>
     </row>
     <row r="22" spans="1:51" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="14" t="s">
         <v>21</v>
       </c>
@@ -6806,9 +6852,9 @@
       </c>
     </row>
     <row r="23" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="47" t="s">
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="57" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="14" t="s">
@@ -6957,9 +7003,9 @@
       </c>
     </row>
     <row r="24" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="14" t="s">
         <v>29</v>
       </c>
@@ -7106,9 +7152,9 @@
       </c>
     </row>
     <row r="25" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
       <c r="D25" s="14" t="s">
         <v>30</v>
       </c>
@@ -7255,9 +7301,9 @@
       </c>
     </row>
     <row r="26" spans="1:51" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
       <c r="D26" s="14" t="s">
         <v>21</v>
       </c>
@@ -7404,9 +7450,9 @@
       </c>
     </row>
     <row r="27" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="47" t="s">
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="57" t="s">
         <v>42</v>
       </c>
       <c r="D27" s="14" t="s">
@@ -7555,9 +7601,9 @@
       </c>
     </row>
     <row r="28" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="14" t="s">
         <v>28</v>
       </c>
@@ -7704,9 +7750,9 @@
       </c>
     </row>
     <row r="29" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="14" t="s">
         <v>29</v>
       </c>
@@ -7853,9 +7899,9 @@
       </c>
     </row>
     <row r="30" spans="1:51" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="49"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="59"/>
       <c r="D30" s="14" t="s">
         <v>21</v>
       </c>
@@ -8002,9 +8048,9 @@
       </c>
     </row>
     <row r="31" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="47" t="s">
+      <c r="A31" s="58"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="57" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="14" t="s">
@@ -8153,9 +8199,9 @@
       </c>
     </row>
     <row r="32" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="14" t="s">
         <v>28</v>
       </c>
@@ -8302,9 +8348,9 @@
       </c>
     </row>
     <row r="33" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
       <c r="D33" s="14" t="s">
         <v>29</v>
       </c>
@@ -8451,9 +8497,9 @@
       </c>
     </row>
     <row r="34" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A34" s="48"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="14" t="s">
         <v>30</v>
       </c>
@@ -8600,9 +8646,9 @@
       </c>
     </row>
     <row r="35" spans="1:51" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="59"/>
       <c r="D35" s="14" t="s">
         <v>21</v>
       </c>
@@ -8749,9 +8795,9 @@
       </c>
     </row>
     <row r="36" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A36" s="48"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="47" t="s">
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="57" t="s">
         <v>44</v>
       </c>
       <c r="D36" s="14" t="s">
@@ -8900,9 +8946,9 @@
       </c>
     </row>
     <row r="37" spans="1:51" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A37" s="48"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="49"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="59"/>
       <c r="D37" s="14" t="s">
         <v>21</v>
       </c>
@@ -9049,9 +9095,9 @@
       </c>
     </row>
     <row r="38" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A38" s="48"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="47" t="s">
+      <c r="A38" s="58"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="57" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="14" t="s">
@@ -9200,9 +9246,9 @@
       </c>
     </row>
     <row r="39" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A39" s="48"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
       <c r="D39" s="14" t="s">
         <v>29</v>
       </c>
@@ -9349,9 +9395,9 @@
       </c>
     </row>
     <row r="40" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A40" s="48"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
       <c r="D40" s="14" t="s">
         <v>30</v>
       </c>
@@ -9498,9 +9544,9 @@
       </c>
     </row>
     <row r="41" spans="1:51" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A41" s="48"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="49"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="59"/>
       <c r="D41" s="14" t="s">
         <v>21</v>
       </c>
@@ -9647,9 +9693,9 @@
       </c>
     </row>
     <row r="42" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A42" s="48"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="47" t="s">
+      <c r="A42" s="58"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="57" t="s">
         <v>46</v>
       </c>
       <c r="D42" s="14" t="s">
@@ -9798,9 +9844,9 @@
       </c>
     </row>
     <row r="43" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A43" s="48"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
       <c r="D43" s="14" t="s">
         <v>28</v>
       </c>
@@ -9947,9 +9993,9 @@
       </c>
     </row>
     <row r="44" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A44" s="48"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
       <c r="D44" s="14" t="s">
         <v>29</v>
       </c>
@@ -10096,9 +10142,9 @@
       </c>
     </row>
     <row r="45" spans="1:51" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A45" s="48"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="49"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="59"/>
       <c r="D45" s="14" t="s">
         <v>21</v>
       </c>
@@ -10245,9 +10291,9 @@
       </c>
     </row>
     <row r="46" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A46" s="48"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="47" t="s">
+      <c r="A46" s="58"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="57" t="s">
         <v>47</v>
       </c>
       <c r="D46" s="14" t="s">
@@ -10396,9 +10442,9 @@
       </c>
     </row>
     <row r="47" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A47" s="48"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
       <c r="D47" s="14" t="s">
         <v>29</v>
       </c>
@@ -10545,9 +10591,9 @@
       </c>
     </row>
     <row r="48" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A48" s="48"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
       <c r="D48" s="14" t="s">
         <v>30</v>
       </c>
@@ -10694,9 +10740,9 @@
       </c>
     </row>
     <row r="49" spans="1:51" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A49" s="48"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="49"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="59"/>
       <c r="D49" s="14" t="s">
         <v>21</v>
       </c>
@@ -10843,9 +10889,9 @@
       </c>
     </row>
     <row r="50" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A50" s="48"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="47" t="s">
+      <c r="A50" s="58"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="57" t="s">
         <v>48</v>
       </c>
       <c r="D50" s="14" t="s">
@@ -10994,9 +11040,9 @@
       </c>
     </row>
     <row r="51" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A51" s="48"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
       <c r="D51" s="14" t="s">
         <v>29</v>
       </c>
@@ -11143,9 +11189,9 @@
       </c>
     </row>
     <row r="52" spans="1:51" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A52" s="48"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="49"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="59"/>
       <c r="D52" s="14" t="s">
         <v>21</v>
       </c>
@@ -11292,9 +11338,9 @@
       </c>
     </row>
     <row r="53" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A53" s="48"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="47" t="s">
+      <c r="A53" s="58"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="57" t="s">
         <v>49</v>
       </c>
       <c r="D53" s="14" t="s">
@@ -11443,9 +11489,9 @@
       </c>
     </row>
     <row r="54" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A54" s="48"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
+      <c r="A54" s="58"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="58"/>
       <c r="D54" s="14" t="s">
         <v>29</v>
       </c>
@@ -11592,9 +11638,9 @@
       </c>
     </row>
     <row r="55" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A55" s="48"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="58"/>
       <c r="D55" s="14" t="s">
         <v>30</v>
       </c>
@@ -11741,9 +11787,9 @@
       </c>
     </row>
     <row r="56" spans="1:51" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A56" s="48"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="49"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="59"/>
       <c r="D56" s="14" t="s">
         <v>21</v>
       </c>
@@ -11890,9 +11936,9 @@
       </c>
     </row>
     <row r="57" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A57" s="48"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="47" t="s">
+      <c r="A57" s="58"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="57" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="14" t="s">
@@ -12041,9 +12087,9 @@
       </c>
     </row>
     <row r="58" spans="1:51" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A58" s="48"/>
-      <c r="B58" s="48"/>
-      <c r="C58" s="49"/>
+      <c r="A58" s="58"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="59"/>
       <c r="D58" s="14" t="s">
         <v>21</v>
       </c>
@@ -12190,12 +12236,12 @@
       </c>
     </row>
     <row r="59" spans="1:51" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="48"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="47" t="s">
+      <c r="A59" s="58"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="51"/>
+      <c r="D59" s="54"/>
       <c r="E59" s="17">
         <v>393</v>
       </c>
@@ -12339,7 +12385,7 @@
       </c>
     </row>
     <row r="60" spans="1:51" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="48"/>
+      <c r="A60" s="58"/>
       <c r="B60" s="39" t="s">
         <v>1</v>
       </c>
@@ -12492,11 +12538,11 @@
       </c>
     </row>
     <row r="61" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A61" s="48"/>
-      <c r="B61" s="47" t="s">
+      <c r="A61" s="58"/>
+      <c r="B61" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C61" s="47" t="s">
+      <c r="C61" s="57" t="s">
         <v>36</v>
       </c>
       <c r="D61" s="14" t="s">
@@ -12645,9 +12691,9 @@
       </c>
     </row>
     <row r="62" spans="1:51" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A62" s="48"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="49"/>
+      <c r="A62" s="58"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="59"/>
       <c r="D62" s="14" t="s">
         <v>21</v>
       </c>
@@ -12794,9 +12840,9 @@
       </c>
     </row>
     <row r="63" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A63" s="48"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="47" t="s">
+      <c r="A63" s="58"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="57" t="s">
         <v>52</v>
       </c>
       <c r="D63" s="14" t="s">
@@ -12945,9 +12991,9 @@
       </c>
     </row>
     <row r="64" spans="1:51" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A64" s="48"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="49"/>
+      <c r="A64" s="58"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="59"/>
       <c r="D64" s="14" t="s">
         <v>21</v>
       </c>
@@ -13094,9 +13140,9 @@
       </c>
     </row>
     <row r="65" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A65" s="48"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="47" t="s">
+      <c r="A65" s="58"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="57" t="s">
         <v>38</v>
       </c>
       <c r="D65" s="14" t="s">
@@ -13245,9 +13291,9 @@
       </c>
     </row>
     <row r="66" spans="1:51" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A66" s="48"/>
-      <c r="B66" s="48"/>
-      <c r="C66" s="49"/>
+      <c r="A66" s="58"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="59"/>
       <c r="D66" s="14" t="s">
         <v>21</v>
       </c>
@@ -13394,9 +13440,9 @@
       </c>
     </row>
     <row r="67" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A67" s="48"/>
-      <c r="B67" s="48"/>
-      <c r="C67" s="47" t="s">
+      <c r="A67" s="58"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="57" t="s">
         <v>39</v>
       </c>
       <c r="D67" s="14" t="s">
@@ -13545,9 +13591,9 @@
       </c>
     </row>
     <row r="68" spans="1:51" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A68" s="48"/>
-      <c r="B68" s="48"/>
-      <c r="C68" s="49"/>
+      <c r="A68" s="58"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="59"/>
       <c r="D68" s="14" t="s">
         <v>21</v>
       </c>
@@ -13694,9 +13740,9 @@
       </c>
     </row>
     <row r="69" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A69" s="48"/>
-      <c r="B69" s="48"/>
-      <c r="C69" s="47" t="s">
+      <c r="A69" s="58"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="57" t="s">
         <v>43</v>
       </c>
       <c r="D69" s="14" t="s">
@@ -13845,9 +13891,9 @@
       </c>
     </row>
     <row r="70" spans="1:51" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A70" s="48"/>
-      <c r="B70" s="48"/>
-      <c r="C70" s="49"/>
+      <c r="A70" s="58"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="59"/>
       <c r="D70" s="14" t="s">
         <v>21</v>
       </c>
@@ -13994,9 +14040,9 @@
       </c>
     </row>
     <row r="71" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A71" s="48"/>
-      <c r="B71" s="48"/>
-      <c r="C71" s="47" t="s">
+      <c r="A71" s="58"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="57" t="s">
         <v>45</v>
       </c>
       <c r="D71" s="14" t="s">
@@ -14145,9 +14191,9 @@
       </c>
     </row>
     <row r="72" spans="1:51" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A72" s="48"/>
-      <c r="B72" s="48"/>
-      <c r="C72" s="49"/>
+      <c r="A72" s="58"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="59"/>
       <c r="D72" s="14" t="s">
         <v>21</v>
       </c>
@@ -14294,9 +14340,9 @@
       </c>
     </row>
     <row r="73" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A73" s="48"/>
-      <c r="B73" s="48"/>
-      <c r="C73" s="47" t="s">
+      <c r="A73" s="58"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="57" t="s">
         <v>47</v>
       </c>
       <c r="D73" s="14" t="s">
@@ -14445,9 +14491,9 @@
       </c>
     </row>
     <row r="74" spans="1:51" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A74" s="48"/>
-      <c r="B74" s="48"/>
-      <c r="C74" s="49"/>
+      <c r="A74" s="58"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="59"/>
       <c r="D74" s="14" t="s">
         <v>21</v>
       </c>
@@ -14594,9 +14640,9 @@
       </c>
     </row>
     <row r="75" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A75" s="48"/>
-      <c r="B75" s="48"/>
-      <c r="C75" s="47" t="s">
+      <c r="A75" s="58"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="57" t="s">
         <v>49</v>
       </c>
       <c r="D75" s="14" t="s">
@@ -14745,9 +14791,9 @@
       </c>
     </row>
     <row r="76" spans="1:51" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A76" s="48"/>
-      <c r="B76" s="48"/>
-      <c r="C76" s="49"/>
+      <c r="A76" s="58"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="59"/>
       <c r="D76" s="14" t="s">
         <v>21</v>
       </c>
@@ -14894,12 +14940,12 @@
       </c>
     </row>
     <row r="77" spans="1:51" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="48"/>
-      <c r="B77" s="49"/>
-      <c r="C77" s="47" t="s">
+      <c r="A77" s="58"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D77" s="51"/>
+      <c r="D77" s="54"/>
       <c r="E77" s="17">
         <v>37</v>
       </c>
@@ -15043,7 +15089,7 @@
       </c>
     </row>
     <row r="78" spans="1:51" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="48"/>
+      <c r="A78" s="58"/>
       <c r="B78" s="39" t="s">
         <v>1</v>
       </c>
@@ -15196,12 +15242,12 @@
       </c>
     </row>
     <row r="79" spans="1:51" ht="16" x14ac:dyDescent="0.35">
-      <c r="A79" s="49"/>
-      <c r="B79" s="65" t="s">
+      <c r="A79" s="59"/>
+      <c r="B79" s="76" t="s">
         <v>21</v>
       </c>
       <c r="C79" s="53"/>
-      <c r="D79" s="51"/>
+      <c r="D79" s="54"/>
       <c r="E79" s="17">
         <v>430</v>
       </c>
@@ -15500,13 +15546,13 @@
       </c>
     </row>
     <row r="81" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A81" s="47" t="s">
+      <c r="A81" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B81" s="47" t="s">
+      <c r="B81" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C81" s="47" t="s">
+      <c r="C81" s="57" t="s">
         <v>53</v>
       </c>
       <c r="D81" s="14" t="s">
@@ -15655,9 +15701,9 @@
       </c>
     </row>
     <row r="82" spans="1:51" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A82" s="48"/>
-      <c r="B82" s="48"/>
-      <c r="C82" s="49"/>
+      <c r="A82" s="58"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="59"/>
       <c r="D82" s="14" t="s">
         <v>21</v>
       </c>
@@ -15804,9 +15850,9 @@
       </c>
     </row>
     <row r="83" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A83" s="48"/>
-      <c r="B83" s="48"/>
-      <c r="C83" s="47" t="s">
+      <c r="A83" s="58"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="57" t="s">
         <v>50</v>
       </c>
       <c r="D83" s="14" t="s">
@@ -15955,9 +16001,9 @@
       </c>
     </row>
     <row r="84" spans="1:51" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A84" s="48"/>
-      <c r="B84" s="48"/>
-      <c r="C84" s="49"/>
+      <c r="A84" s="58"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="59"/>
       <c r="D84" s="14" t="s">
         <v>21</v>
       </c>
@@ -16104,12 +16150,12 @@
       </c>
     </row>
     <row r="85" spans="1:51" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="48"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="47" t="s">
+      <c r="A85" s="58"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="51"/>
+      <c r="D85" s="54"/>
       <c r="E85" s="17">
         <v>18</v>
       </c>
@@ -16253,7 +16299,7 @@
       </c>
     </row>
     <row r="86" spans="1:51" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="48"/>
+      <c r="A86" s="58"/>
       <c r="B86" s="39" t="s">
         <v>1</v>
       </c>
@@ -16406,11 +16452,11 @@
       </c>
     </row>
     <row r="87" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A87" s="48"/>
-      <c r="B87" s="47" t="s">
+      <c r="A87" s="58"/>
+      <c r="B87" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C87" s="47" t="s">
+      <c r="C87" s="57" t="s">
         <v>53</v>
       </c>
       <c r="D87" s="14" t="s">
@@ -16559,9 +16605,9 @@
       </c>
     </row>
     <row r="88" spans="1:51" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A88" s="48"/>
-      <c r="B88" s="48"/>
-      <c r="C88" s="48"/>
+      <c r="A88" s="58"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="58"/>
       <c r="D88" s="14" t="s">
         <v>26</v>
       </c>
@@ -16708,9 +16754,9 @@
       </c>
     </row>
     <row r="89" spans="1:51" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A89" s="48"/>
-      <c r="B89" s="48"/>
-      <c r="C89" s="49"/>
+      <c r="A89" s="58"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="59"/>
       <c r="D89" s="14" t="s">
         <v>21</v>
       </c>
@@ -16857,12 +16903,12 @@
       </c>
     </row>
     <row r="90" spans="1:51" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="48"/>
-      <c r="B90" s="49"/>
-      <c r="C90" s="47" t="s">
+      <c r="A90" s="58"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D90" s="51"/>
+      <c r="D90" s="54"/>
       <c r="E90" s="17">
         <v>8</v>
       </c>
@@ -17006,7 +17052,7 @@
       </c>
     </row>
     <row r="91" spans="1:51" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="48"/>
+      <c r="A91" s="58"/>
       <c r="B91" s="39" t="s">
         <v>1</v>
       </c>
@@ -17159,12 +17205,12 @@
       </c>
     </row>
     <row r="92" spans="1:51" ht="16" x14ac:dyDescent="0.35">
-      <c r="A92" s="49"/>
-      <c r="B92" s="65" t="s">
+      <c r="A92" s="59"/>
+      <c r="B92" s="76" t="s">
         <v>21</v>
       </c>
       <c r="C92" s="53"/>
-      <c r="D92" s="51"/>
+      <c r="D92" s="54"/>
       <c r="E92" s="17">
         <v>26</v>
       </c>
@@ -17463,12 +17509,12 @@
       </c>
     </row>
     <row r="94" spans="1:51" ht="16" x14ac:dyDescent="0.35">
-      <c r="A94" s="52" t="s">
+      <c r="A94" s="69" t="s">
         <v>21</v>
       </c>
       <c r="B94" s="53"/>
       <c r="C94" s="53"/>
-      <c r="D94" s="51"/>
+      <c r="D94" s="54"/>
       <c r="E94" s="24">
         <v>456</v>
       </c>
@@ -17615,6 +17661,50 @@
     <row r="96" spans="1:51" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="A81:A92"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="A4:A79"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="B61:B77"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="B4:B59"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
     <mergeCell ref="AX2:AX3"/>
     <mergeCell ref="AY2:AY3"/>
     <mergeCell ref="A1:D2"/>
@@ -17631,50 +17721,6 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="AL2:AO2"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="AT2:AW2"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="B61:B77"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="B4:B59"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="A81:A92"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="A4:A79"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C27:C30"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="1.2374015748031499" header="0.78740157480314998" footer="0.78740157480314998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -17689,10 +17735,10 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="3" x14ac:dyDescent="0.35"/>
@@ -17709,38 +17755,40 @@
     <col min="11" max="11" width="13.54296875" customWidth="1"/>
     <col min="12" max="12" width="13.453125" customWidth="1"/>
     <col min="13" max="13" width="13.54296875" customWidth="1"/>
-    <col min="14" max="14" width="13.453125" customWidth="1"/>
-    <col min="15" max="15" width="13.54296875" customWidth="1"/>
-    <col min="16" max="16" width="13.453125" customWidth="1"/>
+    <col min="14" max="15" width="13.453125" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" customWidth="1"/>
+    <col min="17" max="18" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="73" t="s">
+    <row r="1" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="73" t="s">
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="73" t="s">
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="73" t="s">
+      <c r="N1" s="82"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="72"/>
-    </row>
-    <row r="2" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+    </row>
+    <row r="2" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="44" t="s">
         <v>33</v>
       </c>
@@ -17753,10 +17801,10 @@
       <c r="D2" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="48" t="s">
         <v>55</v>
       </c>
       <c r="G2" s="45" t="s">
@@ -17784,13 +17832,19 @@
         <v>19</v>
       </c>
       <c r="O2" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="Q2" s="45" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R2" s="45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>23</v>
       </c>
@@ -17803,10 +17857,10 @@
       <c r="D3" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="78">
+      <c r="E3" s="49">
         <v>9</v>
       </c>
-      <c r="F3" s="79">
+      <c r="F3" s="50">
         <v>9</v>
       </c>
       <c r="G3" s="45">
@@ -17834,13 +17888,19 @@
         <v>2</v>
       </c>
       <c r="O3" s="45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P3" s="45">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q3" s="45">
+        <v>4</v>
+      </c>
+      <c r="R3" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>23</v>
       </c>
@@ -17853,10 +17913,10 @@
       <c r="D4" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="78">
+      <c r="E4" s="49">
         <v>5</v>
       </c>
-      <c r="F4" s="79">
+      <c r="F4" s="50">
         <v>5</v>
       </c>
       <c r="G4" s="45">
@@ -17884,13 +17944,19 @@
         <v>5</v>
       </c>
       <c r="O4" s="45">
+        <v>0</v>
+      </c>
+      <c r="P4" s="45">
         <v>7</v>
       </c>
-      <c r="P4" s="45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q4" s="45">
+        <v>2</v>
+      </c>
+      <c r="R4" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A5" s="46" t="s">
         <v>23</v>
       </c>
@@ -17903,10 +17969,10 @@
       <c r="D5" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="78">
-        <v>0</v>
-      </c>
-      <c r="F5" s="79">
+      <c r="E5" s="49">
+        <v>0</v>
+      </c>
+      <c r="F5" s="50">
         <v>0</v>
       </c>
       <c r="G5" s="45">
@@ -17939,24 +18005,30 @@
       <c r="P5" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q5" s="45">
+        <v>0</v>
+      </c>
+      <c r="R5" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="78">
-        <v>0</v>
-      </c>
-      <c r="F6" s="79">
+      <c r="E6" s="49">
+        <v>0</v>
+      </c>
+      <c r="F6" s="50">
         <v>0</v>
       </c>
       <c r="G6" s="45">
@@ -17984,29 +18056,35 @@
         <v>0</v>
       </c>
       <c r="O6" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="45">
+        <v>0</v>
+      </c>
+      <c r="R6" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A7" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="78">
-        <v>2</v>
-      </c>
-      <c r="F7" s="79">
+      <c r="E7" s="49">
+        <v>2</v>
+      </c>
+      <c r="F7" s="50">
         <v>2</v>
       </c>
       <c r="G7" s="45">
@@ -18039,24 +18117,30 @@
       <c r="P7" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q7" s="45">
+        <v>0</v>
+      </c>
+      <c r="R7" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A8" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="49">
         <v>24</v>
       </c>
-      <c r="F8" s="79">
+      <c r="F8" s="50">
         <v>25</v>
       </c>
       <c r="G8" s="45">
@@ -18084,29 +18168,35 @@
         <v>5</v>
       </c>
       <c r="O8" s="45">
+        <v>0</v>
+      </c>
+      <c r="P8" s="45">
         <v>8</v>
       </c>
-      <c r="P8" s="45">
+      <c r="Q8" s="45">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R8" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="49">
         <v>15</v>
       </c>
-      <c r="F9" s="79">
+      <c r="F9" s="50">
         <v>16</v>
       </c>
       <c r="G9" s="45">
@@ -18134,29 +18224,35 @@
         <v>11</v>
       </c>
       <c r="O9" s="45">
+        <v>0</v>
+      </c>
+      <c r="P9" s="45">
         <v>10</v>
       </c>
-      <c r="P9" s="45">
+      <c r="Q9" s="45">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R9" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="78">
-        <v>1</v>
-      </c>
-      <c r="F10" s="79">
+      <c r="E10" s="49">
+        <v>1</v>
+      </c>
+      <c r="F10" s="50">
         <v>1</v>
       </c>
       <c r="G10" s="45">
@@ -18189,24 +18285,30 @@
       <c r="P10" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q10" s="45">
+        <v>0</v>
+      </c>
+      <c r="R10" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A11" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="51" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="78">
-        <v>0</v>
-      </c>
-      <c r="F11" s="79">
+      <c r="E11" s="49">
+        <v>0</v>
+      </c>
+      <c r="F11" s="50">
         <v>0</v>
       </c>
       <c r="G11" s="45">
@@ -18239,24 +18341,30 @@
       <c r="P11" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q11" s="45">
+        <v>0</v>
+      </c>
+      <c r="R11" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A12" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="51" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E12" s="49">
         <v>6</v>
       </c>
-      <c r="F12" s="79">
+      <c r="F12" s="50">
         <v>6</v>
       </c>
       <c r="G12" s="45">
@@ -18284,29 +18392,35 @@
         <v>0</v>
       </c>
       <c r="O12" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12" s="45">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="45">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R12" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A13" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="51" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="49">
         <v>12</v>
       </c>
-      <c r="F13" s="79">
+      <c r="F13" s="50">
         <v>13</v>
       </c>
       <c r="G13" s="45">
@@ -18334,29 +18448,35 @@
         <v>6</v>
       </c>
       <c r="O13" s="45">
+        <v>0</v>
+      </c>
+      <c r="P13" s="45">
         <v>6</v>
       </c>
-      <c r="P13" s="45">
+      <c r="Q13" s="45">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R13" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A14" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="51" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="78">
+      <c r="E14" s="49">
         <v>14</v>
       </c>
-      <c r="F14" s="79">
+      <c r="F14" s="50">
         <v>15</v>
       </c>
       <c r="G14" s="45">
@@ -18389,24 +18509,30 @@
       <c r="P14" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q14" s="45">
+        <v>0</v>
+      </c>
+      <c r="R14" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A15" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="78">
-        <v>0</v>
-      </c>
-      <c r="F15" s="79">
+      <c r="E15" s="49">
+        <v>0</v>
+      </c>
+      <c r="F15" s="50">
         <v>0</v>
       </c>
       <c r="G15" s="45">
@@ -18434,29 +18560,35 @@
         <v>0</v>
       </c>
       <c r="O15" s="45">
+        <v>0</v>
+      </c>
+      <c r="P15" s="45">
         <v>3</v>
       </c>
-      <c r="P15" s="45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q15" s="45">
+        <v>2</v>
+      </c>
+      <c r="R15" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A16" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="78">
+      <c r="E16" s="49">
         <v>3</v>
       </c>
-      <c r="F16" s="79">
+      <c r="F16" s="50">
         <v>3</v>
       </c>
       <c r="G16" s="45">
@@ -18484,29 +18616,35 @@
         <v>0</v>
       </c>
       <c r="O16" s="45">
+        <v>0</v>
+      </c>
+      <c r="P16" s="45">
         <v>12</v>
       </c>
-      <c r="P16" s="45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q16" s="45">
+        <v>2</v>
+      </c>
+      <c r="R16" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A17" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="51" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="78">
-        <v>2</v>
-      </c>
-      <c r="F17" s="79">
+      <c r="E17" s="49">
+        <v>2</v>
+      </c>
+      <c r="F17" s="50">
         <v>2</v>
       </c>
       <c r="G17" s="45">
@@ -18534,29 +18672,35 @@
         <v>0</v>
       </c>
       <c r="O17" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="45">
+        <v>0</v>
+      </c>
+      <c r="R17" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A18" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="51" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="78">
-        <v>2</v>
-      </c>
-      <c r="F18" s="79">
+      <c r="E18" s="49">
+        <v>2</v>
+      </c>
+      <c r="F18" s="50">
         <v>2</v>
       </c>
       <c r="G18" s="45">
@@ -18584,29 +18728,35 @@
         <v>0</v>
       </c>
       <c r="O18" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="45">
+        <v>0</v>
+      </c>
+      <c r="R18" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="51" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="78">
+      <c r="E19" s="49">
         <v>4</v>
       </c>
-      <c r="F19" s="79">
+      <c r="F19" s="50">
         <v>4</v>
       </c>
       <c r="G19" s="45">
@@ -18634,29 +18784,35 @@
         <v>0</v>
       </c>
       <c r="O19" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P19" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="45">
+        <v>0</v>
+      </c>
+      <c r="R19" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="51" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="78">
-        <v>0</v>
-      </c>
-      <c r="F20" s="79">
+      <c r="E20" s="49">
+        <v>0</v>
+      </c>
+      <c r="F20" s="50">
         <v>0</v>
       </c>
       <c r="G20" s="45">
@@ -18689,24 +18845,30 @@
       <c r="P20" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q20" s="45">
+        <v>0</v>
+      </c>
+      <c r="R20" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A21" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="51" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="78">
-        <v>1</v>
-      </c>
-      <c r="F21" s="79">
+      <c r="E21" s="49">
+        <v>1</v>
+      </c>
+      <c r="F21" s="50">
         <v>1</v>
       </c>
       <c r="G21" s="45">
@@ -18739,24 +18901,30 @@
       <c r="P21" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q21" s="45">
+        <v>0</v>
+      </c>
+      <c r="R21" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="51" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="78">
-        <v>0</v>
-      </c>
-      <c r="F22" s="79">
+      <c r="E22" s="49">
+        <v>0</v>
+      </c>
+      <c r="F22" s="50">
         <v>0</v>
       </c>
       <c r="G22" s="45">
@@ -18789,24 +18957,30 @@
       <c r="P22" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q22" s="45">
+        <v>0</v>
+      </c>
+      <c r="R22" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A23" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="51" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="78">
-        <v>0</v>
-      </c>
-      <c r="F23" s="79">
+      <c r="E23" s="49">
+        <v>0</v>
+      </c>
+      <c r="F23" s="50">
         <v>0</v>
       </c>
       <c r="G23" s="45">
@@ -18834,29 +19008,35 @@
         <v>0</v>
       </c>
       <c r="O23" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P23" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="45">
+        <v>1</v>
+      </c>
+      <c r="R23" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A24" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="51" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="78">
+      <c r="E24" s="49">
         <v>6</v>
       </c>
-      <c r="F24" s="79">
+      <c r="F24" s="50">
         <v>6</v>
       </c>
       <c r="G24" s="45">
@@ -18884,29 +19064,35 @@
         <v>1</v>
       </c>
       <c r="O24" s="45">
+        <v>0</v>
+      </c>
+      <c r="P24" s="45">
         <v>5</v>
       </c>
-      <c r="P24" s="45">
+      <c r="Q24" s="45">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R24" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A25" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="80" t="s">
+      <c r="C25" s="51" t="s">
         <v>43</v>
       </c>
       <c r="D25" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="78">
+      <c r="E25" s="49">
         <v>15</v>
       </c>
-      <c r="F25" s="79">
+      <c r="F25" s="50">
         <v>16</v>
       </c>
       <c r="G25" s="45">
@@ -18934,29 +19120,35 @@
         <v>8</v>
       </c>
       <c r="O25" s="45">
+        <v>0</v>
+      </c>
+      <c r="P25" s="45">
         <v>17</v>
       </c>
-      <c r="P25" s="45">
+      <c r="Q25" s="45">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R25" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A26" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C26" s="51" t="s">
         <v>43</v>
       </c>
       <c r="D26" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="78">
+      <c r="E26" s="49">
         <v>16</v>
       </c>
-      <c r="F26" s="79">
+      <c r="F26" s="50">
         <v>17</v>
       </c>
       <c r="G26" s="45">
@@ -18984,13 +19176,19 @@
         <v>15</v>
       </c>
       <c r="O26" s="45">
+        <v>0</v>
+      </c>
+      <c r="P26" s="45">
         <v>10</v>
       </c>
-      <c r="P26" s="45">
+      <c r="Q26" s="45">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R26" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A27" s="46" t="s">
         <v>23</v>
       </c>
@@ -19003,10 +19201,10 @@
       <c r="D27" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="78">
+      <c r="E27" s="49">
         <v>3</v>
       </c>
-      <c r="F27" s="79">
+      <c r="F27" s="50">
         <v>3</v>
       </c>
       <c r="G27" s="45">
@@ -19039,24 +19237,30 @@
       <c r="P27" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q27" s="45">
+        <v>0</v>
+      </c>
+      <c r="R27" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A28" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="51" t="s">
         <v>45</v>
       </c>
       <c r="D28" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="78">
-        <v>2</v>
-      </c>
-      <c r="F28" s="79">
+      <c r="E28" s="49">
+        <v>2</v>
+      </c>
+      <c r="F28" s="50">
         <v>2</v>
       </c>
       <c r="G28" s="45">
@@ -19089,24 +19293,30 @@
       <c r="P28" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q28" s="45">
+        <v>0</v>
+      </c>
+      <c r="R28" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A29" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="C29" s="51" t="s">
         <v>45</v>
       </c>
       <c r="D29" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="78">
+      <c r="E29" s="49">
         <v>19</v>
       </c>
-      <c r="F29" s="79">
+      <c r="F29" s="50">
         <v>20</v>
       </c>
       <c r="G29" s="45">
@@ -19137,26 +19347,32 @@
         <v>0</v>
       </c>
       <c r="P29" s="45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="45">
+        <v>2</v>
+      </c>
+      <c r="R29" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A30" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="51" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="78">
+      <c r="E30" s="49">
         <v>8</v>
       </c>
-      <c r="F30" s="79">
+      <c r="F30" s="50">
         <v>8</v>
       </c>
       <c r="G30" s="45">
@@ -19184,29 +19400,35 @@
         <v>2</v>
       </c>
       <c r="O30" s="45">
+        <v>0</v>
+      </c>
+      <c r="P30" s="45">
         <v>7</v>
       </c>
-      <c r="P30" s="45">
+      <c r="Q30" s="45">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R30" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A31" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="80" t="s">
+      <c r="C31" s="51" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="78">
-        <v>2</v>
-      </c>
-      <c r="F31" s="79">
+      <c r="E31" s="49">
+        <v>2</v>
+      </c>
+      <c r="F31" s="50">
         <v>2</v>
       </c>
       <c r="G31" s="45">
@@ -19234,29 +19456,35 @@
         <v>3</v>
       </c>
       <c r="O31" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P31" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="45">
+        <v>1</v>
+      </c>
+      <c r="R31" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A32" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="80" t="s">
+      <c r="C32" s="51" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="78">
-        <v>0</v>
-      </c>
-      <c r="F32" s="79">
+      <c r="E32" s="49">
+        <v>0</v>
+      </c>
+      <c r="F32" s="50">
         <v>0</v>
       </c>
       <c r="G32" s="45">
@@ -19289,24 +19517,30 @@
       <c r="P32" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q32" s="45">
+        <v>0</v>
+      </c>
+      <c r="R32" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A33" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B33" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="80" t="s">
+      <c r="C33" s="51" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="78">
-        <v>0</v>
-      </c>
-      <c r="F33" s="79">
+      <c r="E33" s="49">
+        <v>0</v>
+      </c>
+      <c r="F33" s="50">
         <v>0</v>
       </c>
       <c r="G33" s="45">
@@ -19339,24 +19573,30 @@
       <c r="P33" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q33" s="45">
+        <v>0</v>
+      </c>
+      <c r="R33" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A34" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="80" t="s">
+      <c r="C34" s="51" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="78">
-        <v>0</v>
-      </c>
-      <c r="F34" s="79">
+      <c r="E34" s="49">
+        <v>0</v>
+      </c>
+      <c r="F34" s="50">
         <v>0</v>
       </c>
       <c r="G34" s="45">
@@ -19384,29 +19624,35 @@
         <v>1</v>
       </c>
       <c r="O34" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="45">
+        <v>0</v>
+      </c>
+      <c r="R34" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A35" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="80" t="s">
+      <c r="C35" s="51" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="78">
+      <c r="E35" s="49">
         <v>14</v>
       </c>
-      <c r="F35" s="79">
+      <c r="F35" s="50">
         <v>15</v>
       </c>
       <c r="G35" s="45">
@@ -19434,29 +19680,35 @@
         <v>10</v>
       </c>
       <c r="O35" s="45">
+        <v>0</v>
+      </c>
+      <c r="P35" s="45">
         <v>7</v>
       </c>
-      <c r="P35" s="45">
+      <c r="Q35" s="45">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R35" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A36" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B36" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="80" t="s">
+      <c r="C36" s="51" t="s">
         <v>47</v>
       </c>
       <c r="D36" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="78">
+      <c r="E36" s="49">
         <v>38</v>
       </c>
-      <c r="F36" s="79">
+      <c r="F36" s="50">
         <v>40</v>
       </c>
       <c r="G36" s="45">
@@ -19484,29 +19736,35 @@
         <v>18</v>
       </c>
       <c r="O36" s="45">
+        <v>0</v>
+      </c>
+      <c r="P36" s="45">
         <v>12</v>
       </c>
-      <c r="P36" s="45">
+      <c r="Q36" s="45">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R36" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A37" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B37" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="80" t="s">
+      <c r="C37" s="51" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="78">
-        <v>0</v>
-      </c>
-      <c r="F37" s="79">
+      <c r="E37" s="49">
+        <v>0</v>
+      </c>
+      <c r="F37" s="50">
         <v>0</v>
       </c>
       <c r="G37" s="45">
@@ -19539,24 +19797,30 @@
       <c r="P37" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q37" s="45">
+        <v>0</v>
+      </c>
+      <c r="R37" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A38" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B38" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="80" t="s">
+      <c r="C38" s="51" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="78">
+      <c r="E38" s="49">
         <v>11</v>
       </c>
-      <c r="F38" s="79">
+      <c r="F38" s="50">
         <v>12</v>
       </c>
       <c r="G38" s="45">
@@ -19589,24 +19853,30 @@
       <c r="P38" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q38" s="45">
+        <v>0</v>
+      </c>
+      <c r="R38" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A39" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B39" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="80" t="s">
+      <c r="C39" s="51" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="78">
+      <c r="E39" s="49">
         <v>5</v>
       </c>
-      <c r="F39" s="79">
+      <c r="F39" s="50">
         <v>5</v>
       </c>
       <c r="G39" s="45">
@@ -19634,29 +19904,35 @@
         <v>0</v>
       </c>
       <c r="O39" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P39" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="45">
+        <v>0</v>
+      </c>
+      <c r="R39" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A40" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B40" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="80" t="s">
+      <c r="C40" s="51" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="78">
+      <c r="E40" s="49">
         <v>6</v>
       </c>
-      <c r="F40" s="79">
+      <c r="F40" s="50">
         <v>6</v>
       </c>
       <c r="G40" s="45">
@@ -19684,29 +19960,35 @@
         <v>0</v>
       </c>
       <c r="O40" s="45">
+        <v>0</v>
+      </c>
+      <c r="P40" s="45">
         <v>3</v>
       </c>
-      <c r="P40" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q40" s="45">
+        <v>1</v>
+      </c>
+      <c r="R40" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A41" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B41" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="80" t="s">
+      <c r="C41" s="51" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="78">
+      <c r="E41" s="49">
         <v>17</v>
       </c>
-      <c r="F41" s="79">
+      <c r="F41" s="50">
         <v>18</v>
       </c>
       <c r="G41" s="45">
@@ -19734,13 +20016,19 @@
         <v>7</v>
       </c>
       <c r="O41" s="45">
+        <v>0</v>
+      </c>
+      <c r="P41" s="45">
         <v>16</v>
       </c>
-      <c r="P41" s="45">
+      <c r="Q41" s="45">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R41" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A42" s="46" t="s">
         <v>23</v>
       </c>
@@ -19753,10 +20041,10 @@
       <c r="D42" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="78">
+      <c r="E42" s="49">
         <v>131</v>
       </c>
-      <c r="F42" s="79">
+      <c r="F42" s="50">
         <v>138</v>
       </c>
       <c r="G42" s="45">
@@ -19784,13 +20072,19 @@
         <v>32</v>
       </c>
       <c r="O42" s="45">
+        <v>0</v>
+      </c>
+      <c r="P42" s="45">
         <v>60</v>
       </c>
-      <c r="P42" s="45">
+      <c r="Q42" s="45">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R42" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A43" s="46" t="s">
         <v>23</v>
       </c>
@@ -19803,10 +20097,10 @@
       <c r="D43" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="78">
-        <v>1</v>
-      </c>
-      <c r="F43" s="79">
+      <c r="E43" s="49">
+        <v>1</v>
+      </c>
+      <c r="F43" s="50">
         <v>1</v>
       </c>
       <c r="G43" s="45">
@@ -19837,10 +20131,16 @@
         <v>0</v>
       </c>
       <c r="P43" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="45">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R43" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A44" s="46" t="s">
         <v>23</v>
       </c>
@@ -19853,10 +20153,10 @@
       <c r="D44" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="78">
+      <c r="E44" s="49">
         <v>10</v>
       </c>
-      <c r="F44" s="79">
+      <c r="F44" s="50">
         <v>11</v>
       </c>
       <c r="G44" s="45">
@@ -19884,13 +20184,19 @@
         <v>18</v>
       </c>
       <c r="O44" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P44" s="45">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="45">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R44" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A45" s="46" t="s">
         <v>23</v>
       </c>
@@ -19903,10 +20209,10 @@
       <c r="D45" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="78">
+      <c r="E45" s="49">
         <v>6</v>
       </c>
-      <c r="F45" s="79">
+      <c r="F45" s="50">
         <v>6</v>
       </c>
       <c r="G45" s="45">
@@ -19939,8 +20245,14 @@
       <c r="P45" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q45" s="45">
+        <v>0</v>
+      </c>
+      <c r="R45" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A46" s="46" t="s">
         <v>23</v>
       </c>
@@ -19953,10 +20265,10 @@
       <c r="D46" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="78">
-        <v>0</v>
-      </c>
-      <c r="F46" s="79">
+      <c r="E46" s="49">
+        <v>0</v>
+      </c>
+      <c r="F46" s="50">
         <v>0</v>
       </c>
       <c r="G46" s="45">
@@ -19989,8 +20301,14 @@
       <c r="P46" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q46" s="45">
+        <v>0</v>
+      </c>
+      <c r="R46" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A47" s="46" t="s">
         <v>23</v>
       </c>
@@ -20003,10 +20321,10 @@
       <c r="D47" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="78">
+      <c r="E47" s="49">
         <v>9</v>
       </c>
-      <c r="F47" s="79">
+      <c r="F47" s="50">
         <v>9</v>
       </c>
       <c r="G47" s="45">
@@ -20034,13 +20352,19 @@
         <v>6</v>
       </c>
       <c r="O47" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="45">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R47" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A48" s="46" t="s">
         <v>23</v>
       </c>
@@ -20053,10 +20377,10 @@
       <c r="D48" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="78">
+      <c r="E48" s="49">
         <v>3</v>
       </c>
-      <c r="F48" s="79">
+      <c r="F48" s="50">
         <v>3</v>
       </c>
       <c r="G48" s="45">
@@ -20087,10 +20411,16 @@
         <v>0</v>
       </c>
       <c r="P48" s="45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="45">
+        <v>2</v>
+      </c>
+      <c r="R48" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A49" s="46" t="s">
         <v>23</v>
       </c>
@@ -20103,10 +20433,10 @@
       <c r="D49" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="78">
+      <c r="E49" s="49">
         <v>5</v>
       </c>
-      <c r="F49" s="79">
+      <c r="F49" s="50">
         <v>5</v>
       </c>
       <c r="G49" s="45">
@@ -20134,13 +20464,19 @@
         <v>1</v>
       </c>
       <c r="O49" s="45">
+        <v>0</v>
+      </c>
+      <c r="P49" s="45">
         <v>6</v>
       </c>
-      <c r="P49" s="45">
+      <c r="Q49" s="45">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R49" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A50" s="46" t="s">
         <v>23</v>
       </c>
@@ -20153,10 +20489,10 @@
       <c r="D50" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="78">
+      <c r="E50" s="49">
         <v>3</v>
       </c>
-      <c r="F50" s="79">
+      <c r="F50" s="50">
         <v>3</v>
       </c>
       <c r="G50" s="45">
@@ -20189,16 +20525,22 @@
       <c r="P50" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="1:16" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="Q50" s="45">
+        <v>0</v>
+      </c>
+      <c r="R50" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="1:18" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="1.2374015748031499" header="0.78740157480314998" footer="0.78740157480314998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -20213,10 +20555,10 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="3" x14ac:dyDescent="0.35"/>
@@ -20233,12 +20575,12 @@
     <col min="11" max="11" width="13.54296875" customWidth="1"/>
     <col min="12" max="12" width="13.453125" customWidth="1"/>
     <col min="13" max="13" width="13.54296875" customWidth="1"/>
-    <col min="14" max="14" width="13.453125" customWidth="1"/>
-    <col min="15" max="15" width="13.54296875" customWidth="1"/>
-    <col min="16" max="16" width="13.453125" customWidth="1"/>
+    <col min="14" max="15" width="13.453125" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" customWidth="1"/>
+    <col min="17" max="18" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
         <v>33</v>
       </c>
@@ -20251,10 +20593,10 @@
       <c r="D1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="48" t="s">
         <v>55</v>
       </c>
       <c r="G1" s="45" t="s">
@@ -20282,13 +20624,19 @@
         <v>19</v>
       </c>
       <c r="O1" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="Q1" s="45" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R1" s="45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A2" s="46" t="s">
         <v>23</v>
       </c>
@@ -20301,10 +20649,10 @@
       <c r="D2" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="78">
+      <c r="E2" s="49">
         <v>9</v>
       </c>
-      <c r="F2" s="79">
+      <c r="F2" s="50">
         <v>9</v>
       </c>
       <c r="G2" s="45">
@@ -20332,13 +20680,19 @@
         <v>2</v>
       </c>
       <c r="O2" s="45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P2" s="45">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q2" s="45">
+        <v>4</v>
+      </c>
+      <c r="R2" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>23</v>
       </c>
@@ -20351,10 +20705,10 @@
       <c r="D3" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="78">
+      <c r="E3" s="49">
         <v>5</v>
       </c>
-      <c r="F3" s="79">
+      <c r="F3" s="50">
         <v>5</v>
       </c>
       <c r="G3" s="45">
@@ -20382,13 +20736,19 @@
         <v>5</v>
       </c>
       <c r="O3" s="45">
+        <v>0</v>
+      </c>
+      <c r="P3" s="45">
         <v>7</v>
       </c>
-      <c r="P3" s="45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q3" s="45">
+        <v>2</v>
+      </c>
+      <c r="R3" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>23</v>
       </c>
@@ -20401,10 +20761,10 @@
       <c r="D4" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="78">
-        <v>0</v>
-      </c>
-      <c r="F4" s="79">
+      <c r="E4" s="49">
+        <v>0</v>
+      </c>
+      <c r="F4" s="50">
         <v>0</v>
       </c>
       <c r="G4" s="45">
@@ -20437,24 +20797,30 @@
       <c r="P4" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q4" s="45">
+        <v>0</v>
+      </c>
+      <c r="R4" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="78">
-        <v>0</v>
-      </c>
-      <c r="F5" s="79">
+      <c r="E5" s="49">
+        <v>0</v>
+      </c>
+      <c r="F5" s="50">
         <v>0</v>
       </c>
       <c r="G5" s="45">
@@ -20482,29 +20848,35 @@
         <v>0</v>
       </c>
       <c r="O5" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="45">
+        <v>0</v>
+      </c>
+      <c r="R5" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="78">
-        <v>2</v>
-      </c>
-      <c r="F6" s="79">
+      <c r="E6" s="49">
+        <v>2</v>
+      </c>
+      <c r="F6" s="50">
         <v>2</v>
       </c>
       <c r="G6" s="45">
@@ -20537,24 +20909,30 @@
       <c r="P6" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q6" s="45">
+        <v>0</v>
+      </c>
+      <c r="R6" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A7" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="78">
+      <c r="E7" s="49">
         <v>24</v>
       </c>
-      <c r="F7" s="79">
+      <c r="F7" s="50">
         <v>25</v>
       </c>
       <c r="G7" s="45">
@@ -20582,29 +20960,35 @@
         <v>5</v>
       </c>
       <c r="O7" s="45">
+        <v>0</v>
+      </c>
+      <c r="P7" s="45">
         <v>8</v>
       </c>
-      <c r="P7" s="45">
+      <c r="Q7" s="45">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R7" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A8" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="49">
         <v>15</v>
       </c>
-      <c r="F8" s="79">
+      <c r="F8" s="50">
         <v>16</v>
       </c>
       <c r="G8" s="45">
@@ -20632,29 +21016,35 @@
         <v>11</v>
       </c>
       <c r="O8" s="45">
+        <v>0</v>
+      </c>
+      <c r="P8" s="45">
         <v>10</v>
       </c>
-      <c r="P8" s="45">
+      <c r="Q8" s="45">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R8" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="78">
-        <v>1</v>
-      </c>
-      <c r="F9" s="79">
+      <c r="E9" s="49">
+        <v>1</v>
+      </c>
+      <c r="F9" s="50">
         <v>1</v>
       </c>
       <c r="G9" s="45">
@@ -20687,24 +21077,30 @@
       <c r="P9" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q9" s="45">
+        <v>0</v>
+      </c>
+      <c r="R9" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="51" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="78">
-        <v>0</v>
-      </c>
-      <c r="F10" s="79">
+      <c r="E10" s="49">
+        <v>0</v>
+      </c>
+      <c r="F10" s="50">
         <v>0</v>
       </c>
       <c r="G10" s="45">
@@ -20737,24 +21133,30 @@
       <c r="P10" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q10" s="45">
+        <v>0</v>
+      </c>
+      <c r="R10" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A11" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="51" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="49">
         <v>6</v>
       </c>
-      <c r="F11" s="79">
+      <c r="F11" s="50">
         <v>6</v>
       </c>
       <c r="G11" s="45">
@@ -20782,29 +21184,35 @@
         <v>0</v>
       </c>
       <c r="O11" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P11" s="45">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="45">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R11" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A12" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="51" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E12" s="49">
         <v>12</v>
       </c>
-      <c r="F12" s="79">
+      <c r="F12" s="50">
         <v>13</v>
       </c>
       <c r="G12" s="45">
@@ -20832,29 +21240,35 @@
         <v>6</v>
       </c>
       <c r="O12" s="45">
+        <v>0</v>
+      </c>
+      <c r="P12" s="45">
         <v>6</v>
       </c>
-      <c r="P12" s="45">
+      <c r="Q12" s="45">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R12" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A13" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="51" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="49">
         <v>14</v>
       </c>
-      <c r="F13" s="79">
+      <c r="F13" s="50">
         <v>15</v>
       </c>
       <c r="G13" s="45">
@@ -20887,24 +21301,30 @@
       <c r="P13" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q13" s="45">
+        <v>0</v>
+      </c>
+      <c r="R13" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A14" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="78">
-        <v>0</v>
-      </c>
-      <c r="F14" s="79">
+      <c r="E14" s="49">
+        <v>0</v>
+      </c>
+      <c r="F14" s="50">
         <v>0</v>
       </c>
       <c r="G14" s="45">
@@ -20932,29 +21352,35 @@
         <v>0</v>
       </c>
       <c r="O14" s="45">
+        <v>0</v>
+      </c>
+      <c r="P14" s="45">
         <v>3</v>
       </c>
-      <c r="P14" s="45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q14" s="45">
+        <v>2</v>
+      </c>
+      <c r="R14" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A15" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="78">
+      <c r="E15" s="49">
         <v>3</v>
       </c>
-      <c r="F15" s="79">
+      <c r="F15" s="50">
         <v>3</v>
       </c>
       <c r="G15" s="45">
@@ -20982,29 +21408,35 @@
         <v>0</v>
       </c>
       <c r="O15" s="45">
+        <v>0</v>
+      </c>
+      <c r="P15" s="45">
         <v>12</v>
       </c>
-      <c r="P15" s="45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q15" s="45">
+        <v>2</v>
+      </c>
+      <c r="R15" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A16" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="51" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="78">
-        <v>2</v>
-      </c>
-      <c r="F16" s="79">
+      <c r="E16" s="49">
+        <v>2</v>
+      </c>
+      <c r="F16" s="50">
         <v>2</v>
       </c>
       <c r="G16" s="45">
@@ -21032,29 +21464,35 @@
         <v>0</v>
       </c>
       <c r="O16" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="45">
+        <v>0</v>
+      </c>
+      <c r="R16" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A17" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="51" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="78">
-        <v>2</v>
-      </c>
-      <c r="F17" s="79">
+      <c r="E17" s="49">
+        <v>2</v>
+      </c>
+      <c r="F17" s="50">
         <v>2</v>
       </c>
       <c r="G17" s="45">
@@ -21082,29 +21520,35 @@
         <v>0</v>
       </c>
       <c r="O17" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="45">
+        <v>0</v>
+      </c>
+      <c r="R17" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A18" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="51" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="78">
+      <c r="E18" s="49">
         <v>4</v>
       </c>
-      <c r="F18" s="79">
+      <c r="F18" s="50">
         <v>4</v>
       </c>
       <c r="G18" s="45">
@@ -21132,29 +21576,35 @@
         <v>0</v>
       </c>
       <c r="O18" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P18" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="45">
+        <v>0</v>
+      </c>
+      <c r="R18" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="51" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="78">
-        <v>0</v>
-      </c>
-      <c r="F19" s="79">
+      <c r="E19" s="49">
+        <v>0</v>
+      </c>
+      <c r="F19" s="50">
         <v>0</v>
       </c>
       <c r="G19" s="45">
@@ -21187,24 +21637,30 @@
       <c r="P19" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q19" s="45">
+        <v>0</v>
+      </c>
+      <c r="R19" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="51" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="78">
-        <v>1</v>
-      </c>
-      <c r="F20" s="79">
+      <c r="E20" s="49">
+        <v>1</v>
+      </c>
+      <c r="F20" s="50">
         <v>1</v>
       </c>
       <c r="G20" s="45">
@@ -21237,24 +21693,30 @@
       <c r="P20" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q20" s="45">
+        <v>0</v>
+      </c>
+      <c r="R20" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A21" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="51" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="78">
-        <v>0</v>
-      </c>
-      <c r="F21" s="79">
+      <c r="E21" s="49">
+        <v>0</v>
+      </c>
+      <c r="F21" s="50">
         <v>0</v>
       </c>
       <c r="G21" s="45">
@@ -21287,24 +21749,30 @@
       <c r="P21" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q21" s="45">
+        <v>0</v>
+      </c>
+      <c r="R21" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="51" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="78">
-        <v>0</v>
-      </c>
-      <c r="F22" s="79">
+      <c r="E22" s="49">
+        <v>0</v>
+      </c>
+      <c r="F22" s="50">
         <v>0</v>
       </c>
       <c r="G22" s="45">
@@ -21332,29 +21800,35 @@
         <v>0</v>
       </c>
       <c r="O22" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P22" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="45">
+        <v>1</v>
+      </c>
+      <c r="R22" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A23" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="51" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="78">
+      <c r="E23" s="49">
         <v>6</v>
       </c>
-      <c r="F23" s="79">
+      <c r="F23" s="50">
         <v>6</v>
       </c>
       <c r="G23" s="45">
@@ -21382,29 +21856,35 @@
         <v>1</v>
       </c>
       <c r="O23" s="45">
+        <v>0</v>
+      </c>
+      <c r="P23" s="45">
         <v>5</v>
       </c>
-      <c r="P23" s="45">
+      <c r="Q23" s="45">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R23" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A24" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="51" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="78">
+      <c r="E24" s="49">
         <v>15</v>
       </c>
-      <c r="F24" s="79">
+      <c r="F24" s="50">
         <v>16</v>
       </c>
       <c r="G24" s="45">
@@ -21432,29 +21912,35 @@
         <v>8</v>
       </c>
       <c r="O24" s="45">
+        <v>0</v>
+      </c>
+      <c r="P24" s="45">
         <v>17</v>
       </c>
-      <c r="P24" s="45">
+      <c r="Q24" s="45">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R24" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A25" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="80" t="s">
+      <c r="C25" s="51" t="s">
         <v>43</v>
       </c>
       <c r="D25" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="78">
+      <c r="E25" s="49">
         <v>16</v>
       </c>
-      <c r="F25" s="79">
+      <c r="F25" s="50">
         <v>17</v>
       </c>
       <c r="G25" s="45">
@@ -21482,13 +21968,19 @@
         <v>15</v>
       </c>
       <c r="O25" s="45">
+        <v>0</v>
+      </c>
+      <c r="P25" s="45">
         <v>10</v>
       </c>
-      <c r="P25" s="45">
+      <c r="Q25" s="45">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R25" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A26" s="46" t="s">
         <v>23</v>
       </c>
@@ -21501,10 +21993,10 @@
       <c r="D26" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="78">
+      <c r="E26" s="49">
         <v>3</v>
       </c>
-      <c r="F26" s="79">
+      <c r="F26" s="50">
         <v>3</v>
       </c>
       <c r="G26" s="45">
@@ -21537,24 +22029,30 @@
       <c r="P26" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q26" s="45">
+        <v>0</v>
+      </c>
+      <c r="R26" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A27" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="51" t="s">
         <v>45</v>
       </c>
       <c r="D27" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="78">
-        <v>2</v>
-      </c>
-      <c r="F27" s="79">
+      <c r="E27" s="49">
+        <v>2</v>
+      </c>
+      <c r="F27" s="50">
         <v>2</v>
       </c>
       <c r="G27" s="45">
@@ -21587,24 +22085,30 @@
       <c r="P27" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q27" s="45">
+        <v>0</v>
+      </c>
+      <c r="R27" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A28" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="51" t="s">
         <v>45</v>
       </c>
       <c r="D28" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="78">
+      <c r="E28" s="49">
         <v>19</v>
       </c>
-      <c r="F28" s="79">
+      <c r="F28" s="50">
         <v>20</v>
       </c>
       <c r="G28" s="45">
@@ -21635,26 +22139,32 @@
         <v>0</v>
       </c>
       <c r="P28" s="45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="45">
+        <v>2</v>
+      </c>
+      <c r="R28" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A29" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="C29" s="51" t="s">
         <v>45</v>
       </c>
       <c r="D29" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="78">
+      <c r="E29" s="49">
         <v>8</v>
       </c>
-      <c r="F29" s="79">
+      <c r="F29" s="50">
         <v>8</v>
       </c>
       <c r="G29" s="45">
@@ -21682,29 +22192,35 @@
         <v>2</v>
       </c>
       <c r="O29" s="45">
+        <v>0</v>
+      </c>
+      <c r="P29" s="45">
         <v>7</v>
       </c>
-      <c r="P29" s="45">
+      <c r="Q29" s="45">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R29" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A30" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="51" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="78">
-        <v>2</v>
-      </c>
-      <c r="F30" s="79">
+      <c r="E30" s="49">
+        <v>2</v>
+      </c>
+      <c r="F30" s="50">
         <v>2</v>
       </c>
       <c r="G30" s="45">
@@ -21732,29 +22248,35 @@
         <v>3</v>
       </c>
       <c r="O30" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P30" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="45">
+        <v>1</v>
+      </c>
+      <c r="R30" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A31" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="80" t="s">
+      <c r="C31" s="51" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="78">
-        <v>0</v>
-      </c>
-      <c r="F31" s="79">
+      <c r="E31" s="49">
+        <v>0</v>
+      </c>
+      <c r="F31" s="50">
         <v>0</v>
       </c>
       <c r="G31" s="45">
@@ -21787,24 +22309,30 @@
       <c r="P31" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q31" s="45">
+        <v>0</v>
+      </c>
+      <c r="R31" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A32" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="80" t="s">
+      <c r="C32" s="51" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="78">
-        <v>0</v>
-      </c>
-      <c r="F32" s="79">
+      <c r="E32" s="49">
+        <v>0</v>
+      </c>
+      <c r="F32" s="50">
         <v>0</v>
       </c>
       <c r="G32" s="45">
@@ -21837,24 +22365,30 @@
       <c r="P32" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q32" s="45">
+        <v>0</v>
+      </c>
+      <c r="R32" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A33" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B33" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="80" t="s">
+      <c r="C33" s="51" t="s">
         <v>47</v>
       </c>
       <c r="D33" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="78">
-        <v>0</v>
-      </c>
-      <c r="F33" s="79">
+      <c r="E33" s="49">
+        <v>0</v>
+      </c>
+      <c r="F33" s="50">
         <v>0</v>
       </c>
       <c r="G33" s="45">
@@ -21882,29 +22416,35 @@
         <v>1</v>
       </c>
       <c r="O33" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="45">
+        <v>0</v>
+      </c>
+      <c r="R33" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A34" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="80" t="s">
+      <c r="C34" s="51" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="78">
+      <c r="E34" s="49">
         <v>14</v>
       </c>
-      <c r="F34" s="79">
+      <c r="F34" s="50">
         <v>15</v>
       </c>
       <c r="G34" s="45">
@@ -21932,29 +22472,35 @@
         <v>10</v>
       </c>
       <c r="O34" s="45">
+        <v>0</v>
+      </c>
+      <c r="P34" s="45">
         <v>7</v>
       </c>
-      <c r="P34" s="45">
+      <c r="Q34" s="45">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R34" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A35" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="80" t="s">
+      <c r="C35" s="51" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="78">
+      <c r="E35" s="49">
         <v>38</v>
       </c>
-      <c r="F35" s="79">
+      <c r="F35" s="50">
         <v>40</v>
       </c>
       <c r="G35" s="45">
@@ -21982,29 +22528,35 @@
         <v>18</v>
       </c>
       <c r="O35" s="45">
+        <v>0</v>
+      </c>
+      <c r="P35" s="45">
         <v>12</v>
       </c>
-      <c r="P35" s="45">
+      <c r="Q35" s="45">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R35" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A36" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B36" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="80" t="s">
+      <c r="C36" s="51" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="78">
-        <v>0</v>
-      </c>
-      <c r="F36" s="79">
+      <c r="E36" s="49">
+        <v>0</v>
+      </c>
+      <c r="F36" s="50">
         <v>0</v>
       </c>
       <c r="G36" s="45">
@@ -22037,24 +22589,30 @@
       <c r="P36" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q36" s="45">
+        <v>0</v>
+      </c>
+      <c r="R36" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A37" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B37" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="80" t="s">
+      <c r="C37" s="51" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="78">
+      <c r="E37" s="49">
         <v>11</v>
       </c>
-      <c r="F37" s="79">
+      <c r="F37" s="50">
         <v>12</v>
       </c>
       <c r="G37" s="45">
@@ -22087,24 +22645,30 @@
       <c r="P37" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q37" s="45">
+        <v>0</v>
+      </c>
+      <c r="R37" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A38" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B38" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="80" t="s">
+      <c r="C38" s="51" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="78">
+      <c r="E38" s="49">
         <v>5</v>
       </c>
-      <c r="F38" s="79">
+      <c r="F38" s="50">
         <v>5</v>
       </c>
       <c r="G38" s="45">
@@ -22132,29 +22696,35 @@
         <v>0</v>
       </c>
       <c r="O38" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P38" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="45">
+        <v>0</v>
+      </c>
+      <c r="R38" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A39" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B39" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="80" t="s">
+      <c r="C39" s="51" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="78">
+      <c r="E39" s="49">
         <v>6</v>
       </c>
-      <c r="F39" s="79">
+      <c r="F39" s="50">
         <v>6</v>
       </c>
       <c r="G39" s="45">
@@ -22182,29 +22752,35 @@
         <v>0</v>
       </c>
       <c r="O39" s="45">
+        <v>0</v>
+      </c>
+      <c r="P39" s="45">
         <v>3</v>
       </c>
-      <c r="P39" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q39" s="45">
+        <v>1</v>
+      </c>
+      <c r="R39" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A40" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B40" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="80" t="s">
+      <c r="C40" s="51" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="78">
+      <c r="E40" s="49">
         <v>17</v>
       </c>
-      <c r="F40" s="79">
+      <c r="F40" s="50">
         <v>18</v>
       </c>
       <c r="G40" s="45">
@@ -22232,13 +22808,19 @@
         <v>7</v>
       </c>
       <c r="O40" s="45">
+        <v>0</v>
+      </c>
+      <c r="P40" s="45">
         <v>16</v>
       </c>
-      <c r="P40" s="45">
+      <c r="Q40" s="45">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R40" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A41" s="46" t="s">
         <v>23</v>
       </c>
@@ -22251,10 +22833,10 @@
       <c r="D41" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="78">
+      <c r="E41" s="49">
         <v>131</v>
       </c>
-      <c r="F41" s="79">
+      <c r="F41" s="50">
         <v>138</v>
       </c>
       <c r="G41" s="45">
@@ -22282,13 +22864,19 @@
         <v>32</v>
       </c>
       <c r="O41" s="45">
+        <v>0</v>
+      </c>
+      <c r="P41" s="45">
         <v>60</v>
       </c>
-      <c r="P41" s="45">
+      <c r="Q41" s="45">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R41" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A42" s="46" t="s">
         <v>23</v>
       </c>
@@ -22301,10 +22889,10 @@
       <c r="D42" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="78">
-        <v>1</v>
-      </c>
-      <c r="F42" s="79">
+      <c r="E42" s="49">
+        <v>1</v>
+      </c>
+      <c r="F42" s="50">
         <v>1</v>
       </c>
       <c r="G42" s="45">
@@ -22335,10 +22923,16 @@
         <v>0</v>
       </c>
       <c r="P42" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="45">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R42" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A43" s="46" t="s">
         <v>23</v>
       </c>
@@ -22351,10 +22945,10 @@
       <c r="D43" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="78">
+      <c r="E43" s="49">
         <v>10</v>
       </c>
-      <c r="F43" s="79">
+      <c r="F43" s="50">
         <v>11</v>
       </c>
       <c r="G43" s="45">
@@ -22382,13 +22976,19 @@
         <v>18</v>
       </c>
       <c r="O43" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P43" s="45">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="45">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R43" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A44" s="46" t="s">
         <v>23</v>
       </c>
@@ -22401,10 +23001,10 @@
       <c r="D44" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="78">
+      <c r="E44" s="49">
         <v>6</v>
       </c>
-      <c r="F44" s="79">
+      <c r="F44" s="50">
         <v>6</v>
       </c>
       <c r="G44" s="45">
@@ -22437,8 +23037,14 @@
       <c r="P44" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q44" s="45">
+        <v>0</v>
+      </c>
+      <c r="R44" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A45" s="46" t="s">
         <v>23</v>
       </c>
@@ -22451,10 +23057,10 @@
       <c r="D45" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="78">
-        <v>0</v>
-      </c>
-      <c r="F45" s="79">
+      <c r="E45" s="49">
+        <v>0</v>
+      </c>
+      <c r="F45" s="50">
         <v>0</v>
       </c>
       <c r="G45" s="45">
@@ -22487,8 +23093,14 @@
       <c r="P45" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q45" s="45">
+        <v>0</v>
+      </c>
+      <c r="R45" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A46" s="46" t="s">
         <v>23</v>
       </c>
@@ -22501,10 +23113,10 @@
       <c r="D46" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="78">
+      <c r="E46" s="49">
         <v>9</v>
       </c>
-      <c r="F46" s="79">
+      <c r="F46" s="50">
         <v>9</v>
       </c>
       <c r="G46" s="45">
@@ -22532,13 +23144,19 @@
         <v>6</v>
       </c>
       <c r="O46" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="45">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R46" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A47" s="46" t="s">
         <v>23</v>
       </c>
@@ -22551,10 +23169,10 @@
       <c r="D47" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="78">
+      <c r="E47" s="49">
         <v>3</v>
       </c>
-      <c r="F47" s="79">
+      <c r="F47" s="50">
         <v>3</v>
       </c>
       <c r="G47" s="45">
@@ -22585,10 +23203,16 @@
         <v>0</v>
       </c>
       <c r="P47" s="45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="45">
+        <v>2</v>
+      </c>
+      <c r="R47" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A48" s="46" t="s">
         <v>23</v>
       </c>
@@ -22601,10 +23225,10 @@
       <c r="D48" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="78">
+      <c r="E48" s="49">
         <v>5</v>
       </c>
-      <c r="F48" s="79">
+      <c r="F48" s="50">
         <v>5</v>
       </c>
       <c r="G48" s="45">
@@ -22632,13 +23256,19 @@
         <v>1</v>
       </c>
       <c r="O48" s="45">
+        <v>0</v>
+      </c>
+      <c r="P48" s="45">
         <v>6</v>
       </c>
-      <c r="P48" s="45">
+      <c r="Q48" s="45">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="R48" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A49" s="46" t="s">
         <v>23</v>
       </c>
@@ -22651,10 +23281,10 @@
       <c r="D49" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="78">
+      <c r="E49" s="49">
         <v>3</v>
       </c>
-      <c r="F49" s="79">
+      <c r="F49" s="50">
         <v>3</v>
       </c>
       <c r="G49" s="45">
@@ -22687,9 +23317,15 @@
       <c r="P49" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" spans="1:16" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="Q49" s="45">
+        <v>0</v>
+      </c>
+      <c r="R49" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="1:18" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="1.2374015748031499" header="0.78740157480314998" footer="0.78740157480314998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -22730,32 +23366,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="74" t="s">
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="74" t="s">
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="74" t="s">
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="74" t="s">
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="44" t="s">
@@ -22770,10 +23406,10 @@
       <c r="D2" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="48" t="s">
         <v>55</v>
       </c>
       <c r="G2" s="45" t="s">
@@ -22826,10 +23462,10 @@
       <c r="D3" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="78">
+      <c r="E3" s="49">
         <v>9</v>
       </c>
-      <c r="F3" s="79">
+      <c r="F3" s="50">
         <v>9</v>
       </c>
       <c r="G3" s="45">
@@ -22882,10 +23518,10 @@
       <c r="D4" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="78">
+      <c r="E4" s="49">
         <v>5</v>
       </c>
-      <c r="F4" s="79">
+      <c r="F4" s="50">
         <v>5</v>
       </c>
       <c r="G4" s="45">
@@ -22938,10 +23574,10 @@
       <c r="D5" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="78">
-        <v>0</v>
-      </c>
-      <c r="F5" s="79">
+      <c r="E5" s="49">
+        <v>0</v>
+      </c>
+      <c r="F5" s="50">
         <v>0</v>
       </c>
       <c r="G5" s="45">
@@ -22988,16 +23624,16 @@
       <c r="B6" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="78">
-        <v>0</v>
-      </c>
-      <c r="F6" s="79">
+      <c r="E6" s="49">
+        <v>0</v>
+      </c>
+      <c r="F6" s="50">
         <v>0</v>
       </c>
       <c r="G6" s="45">
@@ -23044,16 +23680,16 @@
       <c r="B7" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="78">
-        <v>2</v>
-      </c>
-      <c r="F7" s="79">
+      <c r="E7" s="49">
+        <v>2</v>
+      </c>
+      <c r="F7" s="50">
         <v>2</v>
       </c>
       <c r="G7" s="45">
@@ -23100,16 +23736,16 @@
       <c r="B8" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="49">
         <v>24</v>
       </c>
-      <c r="F8" s="79">
+      <c r="F8" s="50">
         <v>25</v>
       </c>
       <c r="G8" s="45">
@@ -23156,16 +23792,16 @@
       <c r="B9" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="49">
         <v>15</v>
       </c>
-      <c r="F9" s="79">
+      <c r="F9" s="50">
         <v>16</v>
       </c>
       <c r="G9" s="45">
@@ -23212,16 +23848,16 @@
       <c r="B10" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="78">
-        <v>1</v>
-      </c>
-      <c r="F10" s="79">
+      <c r="E10" s="49">
+        <v>1</v>
+      </c>
+      <c r="F10" s="50">
         <v>1</v>
       </c>
       <c r="G10" s="45">
@@ -23268,16 +23904,16 @@
       <c r="B11" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="51" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="78">
-        <v>0</v>
-      </c>
-      <c r="F11" s="79">
+      <c r="E11" s="49">
+        <v>0</v>
+      </c>
+      <c r="F11" s="50">
         <v>0</v>
       </c>
       <c r="G11" s="45">
@@ -23324,16 +23960,16 @@
       <c r="B12" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="51" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E12" s="49">
         <v>6</v>
       </c>
-      <c r="F12" s="79">
+      <c r="F12" s="50">
         <v>6</v>
       </c>
       <c r="G12" s="45">
@@ -23380,16 +24016,16 @@
       <c r="B13" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="51" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="49">
         <v>12</v>
       </c>
-      <c r="F13" s="79">
+      <c r="F13" s="50">
         <v>13</v>
       </c>
       <c r="G13" s="45">
@@ -23429,23 +24065,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A14" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="51" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="78">
+      <c r="E14" s="49">
         <v>14</v>
       </c>
-      <c r="F14" s="79">
+      <c r="F14" s="50">
         <v>15</v>
       </c>
       <c r="G14" s="45">
@@ -23492,16 +24128,16 @@
       <c r="B15" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="78">
-        <v>0</v>
-      </c>
-      <c r="F15" s="79">
+      <c r="E15" s="49">
+        <v>0</v>
+      </c>
+      <c r="F15" s="50">
         <v>0</v>
       </c>
       <c r="G15" s="45">
@@ -23548,16 +24184,16 @@
       <c r="B16" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="78">
+      <c r="E16" s="49">
         <v>3</v>
       </c>
-      <c r="F16" s="79">
+      <c r="F16" s="50">
         <v>3</v>
       </c>
       <c r="G16" s="45">
@@ -23604,16 +24240,16 @@
       <c r="B17" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="51" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="78">
-        <v>2</v>
-      </c>
-      <c r="F17" s="79">
+      <c r="E17" s="49">
+        <v>2</v>
+      </c>
+      <c r="F17" s="50">
         <v>2</v>
       </c>
       <c r="G17" s="45">
@@ -23660,16 +24296,16 @@
       <c r="B18" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="51" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="78">
-        <v>2</v>
-      </c>
-      <c r="F18" s="79">
+      <c r="E18" s="49">
+        <v>2</v>
+      </c>
+      <c r="F18" s="50">
         <v>2</v>
       </c>
       <c r="G18" s="45">
@@ -23716,16 +24352,16 @@
       <c r="B19" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="51" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="78">
+      <c r="E19" s="49">
         <v>4</v>
       </c>
-      <c r="F19" s="79">
+      <c r="F19" s="50">
         <v>4</v>
       </c>
       <c r="G19" s="45">
@@ -23772,16 +24408,16 @@
       <c r="B20" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="51" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="78">
-        <v>0</v>
-      </c>
-      <c r="F20" s="79">
+      <c r="E20" s="49">
+        <v>0</v>
+      </c>
+      <c r="F20" s="50">
         <v>0</v>
       </c>
       <c r="G20" s="45">
@@ -23828,16 +24464,16 @@
       <c r="B21" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="51" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="78">
-        <v>1</v>
-      </c>
-      <c r="F21" s="79">
+      <c r="E21" s="49">
+        <v>1</v>
+      </c>
+      <c r="F21" s="50">
         <v>1</v>
       </c>
       <c r="G21" s="45">
@@ -23884,16 +24520,16 @@
       <c r="B22" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="51" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="78">
-        <v>0</v>
-      </c>
-      <c r="F22" s="79">
+      <c r="E22" s="49">
+        <v>0</v>
+      </c>
+      <c r="F22" s="50">
         <v>0</v>
       </c>
       <c r="G22" s="45">
@@ -23940,16 +24576,16 @@
       <c r="B23" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="51" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="78">
-        <v>0</v>
-      </c>
-      <c r="F23" s="79">
+      <c r="E23" s="49">
+        <v>0</v>
+      </c>
+      <c r="F23" s="50">
         <v>0</v>
       </c>
       <c r="G23" s="45">
@@ -23996,16 +24632,16 @@
       <c r="B24" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="51" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="78">
+      <c r="E24" s="49">
         <v>6</v>
       </c>
-      <c r="F24" s="79">
+      <c r="F24" s="50">
         <v>6</v>
       </c>
       <c r="G24" s="45">
@@ -24052,16 +24688,16 @@
       <c r="B25" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="80" t="s">
+      <c r="C25" s="51" t="s">
         <v>43</v>
       </c>
       <c r="D25" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="78">
+      <c r="E25" s="49">
         <v>15</v>
       </c>
-      <c r="F25" s="79">
+      <c r="F25" s="50">
         <v>16</v>
       </c>
       <c r="G25" s="45">
@@ -24108,16 +24744,16 @@
       <c r="B26" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C26" s="51" t="s">
         <v>43</v>
       </c>
       <c r="D26" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="78">
+      <c r="E26" s="49">
         <v>16</v>
       </c>
-      <c r="F26" s="79">
+      <c r="F26" s="50">
         <v>17</v>
       </c>
       <c r="G26" s="45">
@@ -24170,10 +24806,10 @@
       <c r="D27" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="78">
+      <c r="E27" s="49">
         <v>3</v>
       </c>
-      <c r="F27" s="79">
+      <c r="F27" s="50">
         <v>3</v>
       </c>
       <c r="G27" s="45">
@@ -24220,16 +24856,16 @@
       <c r="B28" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="51" t="s">
         <v>45</v>
       </c>
       <c r="D28" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="78">
-        <v>2</v>
-      </c>
-      <c r="F28" s="79">
+      <c r="E28" s="49">
+        <v>2</v>
+      </c>
+      <c r="F28" s="50">
         <v>2</v>
       </c>
       <c r="G28" s="45">
@@ -24276,16 +24912,16 @@
       <c r="B29" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="C29" s="51" t="s">
         <v>45</v>
       </c>
       <c r="D29" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="78">
+      <c r="E29" s="49">
         <v>19</v>
       </c>
-      <c r="F29" s="79">
+      <c r="F29" s="50">
         <v>20</v>
       </c>
       <c r="G29" s="45">
@@ -24332,16 +24968,16 @@
       <c r="B30" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="51" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="78">
+      <c r="E30" s="49">
         <v>8</v>
       </c>
-      <c r="F30" s="79">
+      <c r="F30" s="50">
         <v>8</v>
       </c>
       <c r="G30" s="45">
@@ -24388,16 +25024,16 @@
       <c r="B31" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="80" t="s">
+      <c r="C31" s="51" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="78">
-        <v>2</v>
-      </c>
-      <c r="F31" s="79">
+      <c r="E31" s="49">
+        <v>2</v>
+      </c>
+      <c r="F31" s="50">
         <v>2</v>
       </c>
       <c r="G31" s="45">
@@ -24444,16 +25080,16 @@
       <c r="B32" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="80" t="s">
+      <c r="C32" s="51" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="78">
-        <v>0</v>
-      </c>
-      <c r="F32" s="79">
+      <c r="E32" s="49">
+        <v>0</v>
+      </c>
+      <c r="F32" s="50">
         <v>0</v>
       </c>
       <c r="G32" s="45">
@@ -24500,16 +25136,16 @@
       <c r="B33" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="80" t="s">
+      <c r="C33" s="51" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="78">
-        <v>0</v>
-      </c>
-      <c r="F33" s="79">
+      <c r="E33" s="49">
+        <v>0</v>
+      </c>
+      <c r="F33" s="50">
         <v>0</v>
       </c>
       <c r="G33" s="45">
@@ -24556,16 +25192,16 @@
       <c r="B34" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="80" t="s">
+      <c r="C34" s="51" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="78">
-        <v>0</v>
-      </c>
-      <c r="F34" s="79">
+      <c r="E34" s="49">
+        <v>0</v>
+      </c>
+      <c r="F34" s="50">
         <v>0</v>
       </c>
       <c r="G34" s="45">
@@ -24612,16 +25248,16 @@
       <c r="B35" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="80" t="s">
+      <c r="C35" s="51" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="78">
+      <c r="E35" s="49">
         <v>14</v>
       </c>
-      <c r="F35" s="79">
+      <c r="F35" s="50">
         <v>15</v>
       </c>
       <c r="G35" s="45">
@@ -24668,16 +25304,16 @@
       <c r="B36" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="80" t="s">
+      <c r="C36" s="51" t="s">
         <v>47</v>
       </c>
       <c r="D36" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="78">
+      <c r="E36" s="49">
         <v>38</v>
       </c>
-      <c r="F36" s="79">
+      <c r="F36" s="50">
         <v>40</v>
       </c>
       <c r="G36" s="45">
@@ -24724,16 +25360,16 @@
       <c r="B37" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="80" t="s">
+      <c r="C37" s="51" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="78">
-        <v>0</v>
-      </c>
-      <c r="F37" s="79">
+      <c r="E37" s="49">
+        <v>0</v>
+      </c>
+      <c r="F37" s="50">
         <v>0</v>
       </c>
       <c r="G37" s="45">
@@ -24780,16 +25416,16 @@
       <c r="B38" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="80" t="s">
+      <c r="C38" s="51" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="78">
+      <c r="E38" s="49">
         <v>11</v>
       </c>
-      <c r="F38" s="79">
+      <c r="F38" s="50">
         <v>12</v>
       </c>
       <c r="G38" s="45">
@@ -24836,16 +25472,16 @@
       <c r="B39" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="80" t="s">
+      <c r="C39" s="51" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="78">
+      <c r="E39" s="49">
         <v>5</v>
       </c>
-      <c r="F39" s="79">
+      <c r="F39" s="50">
         <v>5</v>
       </c>
       <c r="G39" s="45">
@@ -24892,16 +25528,16 @@
       <c r="B40" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="80" t="s">
+      <c r="C40" s="51" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="78">
+      <c r="E40" s="49">
         <v>6</v>
       </c>
-      <c r="F40" s="79">
+      <c r="F40" s="50">
         <v>6</v>
       </c>
       <c r="G40" s="45">
@@ -24948,16 +25584,16 @@
       <c r="B41" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="80" t="s">
+      <c r="C41" s="51" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="78">
+      <c r="E41" s="49">
         <v>17</v>
       </c>
-      <c r="F41" s="79">
+      <c r="F41" s="50">
         <v>18</v>
       </c>
       <c r="G41" s="45">
@@ -25010,10 +25646,10 @@
       <c r="D42" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="78">
+      <c r="E42" s="49">
         <v>131</v>
       </c>
-      <c r="F42" s="79">
+      <c r="F42" s="50">
         <v>138</v>
       </c>
       <c r="G42" s="45">
@@ -25066,10 +25702,10 @@
       <c r="D43" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="78">
-        <v>1</v>
-      </c>
-      <c r="F43" s="79">
+      <c r="E43" s="49">
+        <v>1</v>
+      </c>
+      <c r="F43" s="50">
         <v>1</v>
       </c>
       <c r="G43" s="45">
@@ -25122,10 +25758,10 @@
       <c r="D44" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="78">
+      <c r="E44" s="49">
         <v>10</v>
       </c>
-      <c r="F44" s="79">
+      <c r="F44" s="50">
         <v>11</v>
       </c>
       <c r="G44" s="45">
@@ -25178,10 +25814,10 @@
       <c r="D45" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="78">
+      <c r="E45" s="49">
         <v>6</v>
       </c>
-      <c r="F45" s="79">
+      <c r="F45" s="50">
         <v>6</v>
       </c>
       <c r="G45" s="45">
@@ -25234,10 +25870,10 @@
       <c r="D46" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="78">
-        <v>0</v>
-      </c>
-      <c r="F46" s="79">
+      <c r="E46" s="49">
+        <v>0</v>
+      </c>
+      <c r="F46" s="50">
         <v>0</v>
       </c>
       <c r="G46" s="45">
@@ -25290,10 +25926,10 @@
       <c r="D47" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="78">
+      <c r="E47" s="49">
         <v>9</v>
       </c>
-      <c r="F47" s="79">
+      <c r="F47" s="50">
         <v>9</v>
       </c>
       <c r="G47" s="45">
@@ -25346,10 +25982,10 @@
       <c r="D48" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="78">
+      <c r="E48" s="49">
         <v>3</v>
       </c>
-      <c r="F48" s="79">
+      <c r="F48" s="50">
         <v>3</v>
       </c>
       <c r="G48" s="45">
@@ -25402,10 +26038,10 @@
       <c r="D49" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="78">
+      <c r="E49" s="49">
         <v>5</v>
       </c>
-      <c r="F49" s="79">
+      <c r="F49" s="50">
         <v>5</v>
       </c>
       <c r="G49" s="45">
@@ -25458,10 +26094,10 @@
       <c r="D50" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="78">
+      <c r="E50" s="49">
         <v>3</v>
       </c>
-      <c r="F50" s="79">
+      <c r="F50" s="50">
         <v>3</v>
       </c>
       <c r="G50" s="45">
@@ -25527,7 +26163,7 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="3" x14ac:dyDescent="0.35"/>
@@ -25562,10 +26198,10 @@
       <c r="D1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="48" t="s">
         <v>55</v>
       </c>
       <c r="G1" s="45" t="s">
@@ -25618,10 +26254,10 @@
       <c r="D2" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="78">
+      <c r="E2" s="49">
         <v>9</v>
       </c>
-      <c r="F2" s="79">
+      <c r="F2" s="50">
         <v>9</v>
       </c>
       <c r="G2" s="45">
@@ -25674,10 +26310,10 @@
       <c r="D3" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="78">
+      <c r="E3" s="49">
         <v>5</v>
       </c>
-      <c r="F3" s="79">
+      <c r="F3" s="50">
         <v>5</v>
       </c>
       <c r="G3" s="45">
@@ -25730,10 +26366,10 @@
       <c r="D4" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="78">
-        <v>0</v>
-      </c>
-      <c r="F4" s="79">
+      <c r="E4" s="49">
+        <v>0</v>
+      </c>
+      <c r="F4" s="50">
         <v>0</v>
       </c>
       <c r="G4" s="45">
@@ -25780,16 +26416,16 @@
       <c r="B5" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="78">
-        <v>0</v>
-      </c>
-      <c r="F5" s="79">
+      <c r="E5" s="49">
+        <v>0</v>
+      </c>
+      <c r="F5" s="50">
         <v>0</v>
       </c>
       <c r="G5" s="45">
@@ -25836,16 +26472,16 @@
       <c r="B6" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="78">
-        <v>2</v>
-      </c>
-      <c r="F6" s="79">
+      <c r="E6" s="49">
+        <v>2</v>
+      </c>
+      <c r="F6" s="50">
         <v>2</v>
       </c>
       <c r="G6" s="45">
@@ -25892,16 +26528,16 @@
       <c r="B7" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="78">
+      <c r="E7" s="49">
         <v>24</v>
       </c>
-      <c r="F7" s="79">
+      <c r="F7" s="50">
         <v>25</v>
       </c>
       <c r="G7" s="45">
@@ -25948,16 +26584,16 @@
       <c r="B8" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="49">
         <v>15</v>
       </c>
-      <c r="F8" s="79">
+      <c r="F8" s="50">
         <v>16</v>
       </c>
       <c r="G8" s="45">
@@ -26004,16 +26640,16 @@
       <c r="B9" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="78">
-        <v>1</v>
-      </c>
-      <c r="F9" s="79">
+      <c r="E9" s="49">
+        <v>1</v>
+      </c>
+      <c r="F9" s="50">
         <v>1</v>
       </c>
       <c r="G9" s="45">
@@ -26060,16 +26696,16 @@
       <c r="B10" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="51" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="78">
-        <v>0</v>
-      </c>
-      <c r="F10" s="79">
+      <c r="E10" s="49">
+        <v>0</v>
+      </c>
+      <c r="F10" s="50">
         <v>0</v>
       </c>
       <c r="G10" s="45">
@@ -26116,16 +26752,16 @@
       <c r="B11" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="51" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="49">
         <v>6</v>
       </c>
-      <c r="F11" s="79">
+      <c r="F11" s="50">
         <v>6</v>
       </c>
       <c r="G11" s="45">
@@ -26172,16 +26808,16 @@
       <c r="B12" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="51" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E12" s="49">
         <v>12</v>
       </c>
-      <c r="F12" s="79">
+      <c r="F12" s="50">
         <v>13</v>
       </c>
       <c r="G12" s="45">
@@ -26228,16 +26864,16 @@
       <c r="B13" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="51" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="49">
         <v>14</v>
       </c>
-      <c r="F13" s="79">
+      <c r="F13" s="50">
         <v>15</v>
       </c>
       <c r="G13" s="45">
@@ -26284,16 +26920,16 @@
       <c r="B14" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="78">
-        <v>0</v>
-      </c>
-      <c r="F14" s="79">
+      <c r="E14" s="49">
+        <v>0</v>
+      </c>
+      <c r="F14" s="50">
         <v>0</v>
       </c>
       <c r="G14" s="45">
@@ -26340,16 +26976,16 @@
       <c r="B15" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="78">
+      <c r="E15" s="49">
         <v>3</v>
       </c>
-      <c r="F15" s="79">
+      <c r="F15" s="50">
         <v>3</v>
       </c>
       <c r="G15" s="45">
@@ -26396,16 +27032,16 @@
       <c r="B16" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="51" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="78">
-        <v>2</v>
-      </c>
-      <c r="F16" s="79">
+      <c r="E16" s="49">
+        <v>2</v>
+      </c>
+      <c r="F16" s="50">
         <v>2</v>
       </c>
       <c r="G16" s="45">
@@ -26452,16 +27088,16 @@
       <c r="B17" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="51" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="78">
-        <v>2</v>
-      </c>
-      <c r="F17" s="79">
+      <c r="E17" s="49">
+        <v>2</v>
+      </c>
+      <c r="F17" s="50">
         <v>2</v>
       </c>
       <c r="G17" s="45">
@@ -26508,16 +27144,16 @@
       <c r="B18" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="51" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="78">
+      <c r="E18" s="49">
         <v>4</v>
       </c>
-      <c r="F18" s="79">
+      <c r="F18" s="50">
         <v>4</v>
       </c>
       <c r="G18" s="45">
@@ -26564,16 +27200,16 @@
       <c r="B19" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="51" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="78">
-        <v>0</v>
-      </c>
-      <c r="F19" s="79">
+      <c r="E19" s="49">
+        <v>0</v>
+      </c>
+      <c r="F19" s="50">
         <v>0</v>
       </c>
       <c r="G19" s="45">
@@ -26620,16 +27256,16 @@
       <c r="B20" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="51" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="78">
-        <v>1</v>
-      </c>
-      <c r="F20" s="79">
+      <c r="E20" s="49">
+        <v>1</v>
+      </c>
+      <c r="F20" s="50">
         <v>1</v>
       </c>
       <c r="G20" s="45">
@@ -26676,16 +27312,16 @@
       <c r="B21" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="51" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="78">
-        <v>0</v>
-      </c>
-      <c r="F21" s="79">
+      <c r="E21" s="49">
+        <v>0</v>
+      </c>
+      <c r="F21" s="50">
         <v>0</v>
       </c>
       <c r="G21" s="45">
@@ -26732,16 +27368,16 @@
       <c r="B22" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="51" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="78">
-        <v>0</v>
-      </c>
-      <c r="F22" s="79">
+      <c r="E22" s="49">
+        <v>0</v>
+      </c>
+      <c r="F22" s="50">
         <v>0</v>
       </c>
       <c r="G22" s="45">
@@ -26788,16 +27424,16 @@
       <c r="B23" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="51" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="78">
+      <c r="E23" s="49">
         <v>6</v>
       </c>
-      <c r="F23" s="79">
+      <c r="F23" s="50">
         <v>6</v>
       </c>
       <c r="G23" s="45">
@@ -26844,16 +27480,16 @@
       <c r="B24" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="51" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="78">
+      <c r="E24" s="49">
         <v>15</v>
       </c>
-      <c r="F24" s="79">
+      <c r="F24" s="50">
         <v>16</v>
       </c>
       <c r="G24" s="45">
@@ -26900,16 +27536,16 @@
       <c r="B25" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="80" t="s">
+      <c r="C25" s="51" t="s">
         <v>43</v>
       </c>
       <c r="D25" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="78">
+      <c r="E25" s="49">
         <v>16</v>
       </c>
-      <c r="F25" s="79">
+      <c r="F25" s="50">
         <v>17</v>
       </c>
       <c r="G25" s="45">
@@ -26962,10 +27598,10 @@
       <c r="D26" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="78">
+      <c r="E26" s="49">
         <v>3</v>
       </c>
-      <c r="F26" s="79">
+      <c r="F26" s="50">
         <v>3</v>
       </c>
       <c r="G26" s="45">
@@ -27012,16 +27648,16 @@
       <c r="B27" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="51" t="s">
         <v>45</v>
       </c>
       <c r="D27" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="78">
-        <v>2</v>
-      </c>
-      <c r="F27" s="79">
+      <c r="E27" s="49">
+        <v>2</v>
+      </c>
+      <c r="F27" s="50">
         <v>2</v>
       </c>
       <c r="G27" s="45">
@@ -27068,16 +27704,16 @@
       <c r="B28" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="51" t="s">
         <v>45</v>
       </c>
       <c r="D28" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="78">
+      <c r="E28" s="49">
         <v>19</v>
       </c>
-      <c r="F28" s="79">
+      <c r="F28" s="50">
         <v>20</v>
       </c>
       <c r="G28" s="45">
@@ -27124,16 +27760,16 @@
       <c r="B29" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="C29" s="51" t="s">
         <v>45</v>
       </c>
       <c r="D29" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="78">
+      <c r="E29" s="49">
         <v>8</v>
       </c>
-      <c r="F29" s="79">
+      <c r="F29" s="50">
         <v>8</v>
       </c>
       <c r="G29" s="45">
@@ -27180,16 +27816,16 @@
       <c r="B30" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="51" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="78">
-        <v>2</v>
-      </c>
-      <c r="F30" s="79">
+      <c r="E30" s="49">
+        <v>2</v>
+      </c>
+      <c r="F30" s="50">
         <v>2</v>
       </c>
       <c r="G30" s="45">
@@ -27236,16 +27872,16 @@
       <c r="B31" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="80" t="s">
+      <c r="C31" s="51" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="78">
-        <v>0</v>
-      </c>
-      <c r="F31" s="79">
+      <c r="E31" s="49">
+        <v>0</v>
+      </c>
+      <c r="F31" s="50">
         <v>0</v>
       </c>
       <c r="G31" s="45">
@@ -27292,16 +27928,16 @@
       <c r="B32" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="80" t="s">
+      <c r="C32" s="51" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="78">
-        <v>0</v>
-      </c>
-      <c r="F32" s="79">
+      <c r="E32" s="49">
+        <v>0</v>
+      </c>
+      <c r="F32" s="50">
         <v>0</v>
       </c>
       <c r="G32" s="45">
@@ -27348,16 +27984,16 @@
       <c r="B33" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="80" t="s">
+      <c r="C33" s="51" t="s">
         <v>47</v>
       </c>
       <c r="D33" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="78">
-        <v>0</v>
-      </c>
-      <c r="F33" s="79">
+      <c r="E33" s="49">
+        <v>0</v>
+      </c>
+      <c r="F33" s="50">
         <v>0</v>
       </c>
       <c r="G33" s="45">
@@ -27404,16 +28040,16 @@
       <c r="B34" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="80" t="s">
+      <c r="C34" s="51" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="78">
+      <c r="E34" s="49">
         <v>14</v>
       </c>
-      <c r="F34" s="79">
+      <c r="F34" s="50">
         <v>15</v>
       </c>
       <c r="G34" s="45">
@@ -27460,16 +28096,16 @@
       <c r="B35" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="80" t="s">
+      <c r="C35" s="51" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="78">
+      <c r="E35" s="49">
         <v>38</v>
       </c>
-      <c r="F35" s="79">
+      <c r="F35" s="50">
         <v>40</v>
       </c>
       <c r="G35" s="45">
@@ -27516,16 +28152,16 @@
       <c r="B36" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="80" t="s">
+      <c r="C36" s="51" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="78">
-        <v>0</v>
-      </c>
-      <c r="F36" s="79">
+      <c r="E36" s="49">
+        <v>0</v>
+      </c>
+      <c r="F36" s="50">
         <v>0</v>
       </c>
       <c r="G36" s="45">
@@ -27572,16 +28208,16 @@
       <c r="B37" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="80" t="s">
+      <c r="C37" s="51" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="78">
+      <c r="E37" s="49">
         <v>11</v>
       </c>
-      <c r="F37" s="79">
+      <c r="F37" s="50">
         <v>12</v>
       </c>
       <c r="G37" s="45">
@@ -27628,16 +28264,16 @@
       <c r="B38" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="80" t="s">
+      <c r="C38" s="51" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="78">
+      <c r="E38" s="49">
         <v>5</v>
       </c>
-      <c r="F38" s="79">
+      <c r="F38" s="50">
         <v>5</v>
       </c>
       <c r="G38" s="45">
@@ -27684,16 +28320,16 @@
       <c r="B39" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="80" t="s">
+      <c r="C39" s="51" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="78">
+      <c r="E39" s="49">
         <v>6</v>
       </c>
-      <c r="F39" s="79">
+      <c r="F39" s="50">
         <v>6</v>
       </c>
       <c r="G39" s="45">
@@ -27740,16 +28376,16 @@
       <c r="B40" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="80" t="s">
+      <c r="C40" s="51" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="78">
+      <c r="E40" s="49">
         <v>17</v>
       </c>
-      <c r="F40" s="79">
+      <c r="F40" s="50">
         <v>18</v>
       </c>
       <c r="G40" s="45">
@@ -27802,10 +28438,10 @@
       <c r="D41" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="78">
+      <c r="E41" s="49">
         <v>131</v>
       </c>
-      <c r="F41" s="79">
+      <c r="F41" s="50">
         <v>138</v>
       </c>
       <c r="G41" s="45">
@@ -27858,10 +28494,10 @@
       <c r="D42" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="78">
-        <v>1</v>
-      </c>
-      <c r="F42" s="79">
+      <c r="E42" s="49">
+        <v>1</v>
+      </c>
+      <c r="F42" s="50">
         <v>1</v>
       </c>
       <c r="G42" s="45">
@@ -27914,10 +28550,10 @@
       <c r="D43" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="78">
+      <c r="E43" s="49">
         <v>10</v>
       </c>
-      <c r="F43" s="79">
+      <c r="F43" s="50">
         <v>11</v>
       </c>
       <c r="G43" s="45">
@@ -27970,10 +28606,10 @@
       <c r="D44" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="78">
+      <c r="E44" s="49">
         <v>6</v>
       </c>
-      <c r="F44" s="79">
+      <c r="F44" s="50">
         <v>6</v>
       </c>
       <c r="G44" s="45">
@@ -28026,10 +28662,10 @@
       <c r="D45" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="78">
-        <v>0</v>
-      </c>
-      <c r="F45" s="79">
+      <c r="E45" s="49">
+        <v>0</v>
+      </c>
+      <c r="F45" s="50">
         <v>0</v>
       </c>
       <c r="G45" s="45">
@@ -28082,10 +28718,10 @@
       <c r="D46" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="78">
+      <c r="E46" s="49">
         <v>9</v>
       </c>
-      <c r="F46" s="79">
+      <c r="F46" s="50">
         <v>9</v>
       </c>
       <c r="G46" s="45">
@@ -28138,10 +28774,10 @@
       <c r="D47" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="78">
+      <c r="E47" s="49">
         <v>3</v>
       </c>
-      <c r="F47" s="79">
+      <c r="F47" s="50">
         <v>3</v>
       </c>
       <c r="G47" s="45">
@@ -28194,10 +28830,10 @@
       <c r="D48" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="78">
+      <c r="E48" s="49">
         <v>5</v>
       </c>
-      <c r="F48" s="79">
+      <c r="F48" s="50">
         <v>5</v>
       </c>
       <c r="G48" s="45">
@@ -28250,10 +28886,10 @@
       <c r="D49" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="78">
+      <c r="E49" s="49">
         <v>3</v>
       </c>
-      <c r="F49" s="79">
+      <c r="F49" s="50">
         <v>3</v>
       </c>
       <c r="G49" s="45">
@@ -28305,6 +28941,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FC69E81CB6FB524888D32ADD9A3A0D12" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cc45a110b97be256762dae77edf16da7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31d5eec3c12ee2e8127422d567928fa7">
     <xsd:element name="properties">
@@ -28418,32 +29069,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAB26128-6424-41FA-ADA7-A2D83B89FF9E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60F163DD-980E-4F87-9D84-3B6AAF72572A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -28458,9 +29087,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60F163DD-980E-4F87-9D84-3B6AAF72572A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAB26128-6424-41FA-ADA7-A2D83B89FF9E}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
